--- a/Assets/06.Table/GradeTestTable.xlsx
+++ b/Assets/06.Table/GradeTestTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7A40CF-5E42-47B2-B04F-C43F74507485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5752C23E-874D-4C62-862D-2D3675DEEAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GradeTestTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="160">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -616,6 +616,10 @@
   </si>
   <si>
     <t>1000위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41,38,40,44,52,56,74</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,7 +682,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -693,6 +697,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1009,18 +1019,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.875" customWidth="1"/>
     <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2100,7 +2110,7 @@
         <v>1마</v>
       </c>
       <c r="D63" s="4" t="str">
-        <f t="shared" ref="D63:D83" si="0">D62</f>
+        <f t="shared" ref="D63:D86" si="0">D62</f>
         <v>41,38,40,44,52</v>
       </c>
       <c r="E63" s="1" t="str">
@@ -2176,7 +2186,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B83" si="2">B66*10</f>
+        <f t="shared" ref="B67:B86" si="2">B66*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="C67" t="str">
@@ -2518,13 +2528,75 @@
         <f>VLOOKUP(A83,abilvalue!C:J,2,FALSE)</f>
         <v>1위</v>
       </c>
-      <c r="D83" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>41,38,40,44,52,56</v>
+      <c r="D83" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="E83" s="1" t="str">
         <f>VLOOKUP(A83,abilvalue!C:J,3,FALSE)</f>
-        <v>0.000294,0.000294,0.000294,0.00005,0.047,0.017</v>
+        <v>0.000294,0.000294,0.000294,0.00005,0.047,0.017,0.005</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="2"/>
+        <v>1E+129</v>
+      </c>
+      <c r="C84" t="str">
+        <f>VLOOKUP(A84,abilvalue!C:J,2,FALSE)</f>
+        <v>10위</v>
+      </c>
+      <c r="D84" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E84" s="1" t="str">
+        <f>VLOOKUP(A84,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000299,0.000299,0.000299,0.000051,0.048,0.018,0.006</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="C85" t="str">
+        <f>VLOOKUP(A85,abilvalue!C:J,2,FALSE)</f>
+        <v>100위</v>
+      </c>
+      <c r="D85" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E85" s="1" t="str">
+        <f>VLOOKUP(A85,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000304,0.000304,0.000304,0.000052,0.049,0.019,0.007</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="C86" t="str">
+        <f>VLOOKUP(A86,abilvalue!C:J,2,FALSE)</f>
+        <v>1000위</v>
+      </c>
+      <c r="D86" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E86" s="1" t="str">
+        <f>VLOOKUP(A86,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000309,0.000309,0.000309,0.000053,0.05,0.02,0.008</v>
       </c>
     </row>
   </sheetData>
@@ -2536,16 +2608,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:K47"/>
+  <dimension ref="C5:P59"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44:E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="9.25" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="103.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
@@ -2567,7 +2639,7 @@
       <c r="H5">
         <v>3</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="5">
         <v>4</v>
       </c>
       <c r="J5">
@@ -2584,7 +2656,7 @@
       <c r="D6" t="s">
         <v>100</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" s="6" t="str">
         <f>F6&amp;","&amp;G6&amp;","&amp;H6&amp;","&amp;I6</f>
         <v>0.000114,0.000114,0.000114,0.000014</v>
       </c>
@@ -2597,7 +2669,7 @@
       <c r="H6">
         <v>1.1400000000000001E-4</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <v>1.4E-5</v>
       </c>
     </row>
@@ -2608,7 +2680,7 @@
       <c r="D7" t="s">
         <v>101</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7" s="6" t="str">
         <f t="shared" ref="E7:E19" si="0">F7&amp;","&amp;G7&amp;","&amp;H7&amp;","&amp;I7</f>
         <v>0.000119,0.000119,0.000119,0.000015</v>
       </c>
@@ -2624,7 +2696,7 @@
         <f t="shared" si="1"/>
         <v>1.1900000000000001E-4</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
         <f>I6+0.000001</f>
         <v>1.5E-5</v>
       </c>
@@ -2636,7 +2708,7 @@
       <c r="D8" t="s">
         <v>102</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>0.000124,0.000124,0.000124,0.000016</v>
       </c>
@@ -2652,7 +2724,7 @@
         <f t="shared" ref="H8:H25" si="4">H7+0.000005</f>
         <v>1.2400000000000001E-4</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <f t="shared" ref="I8:I25" si="5">I7+0.000001</f>
         <v>1.5999999999999999E-5</v>
       </c>
@@ -2664,7 +2736,7 @@
       <c r="D9" t="s">
         <v>103</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>0.000129,0.000129,0.000129,0.000017</v>
       </c>
@@ -2680,7 +2752,7 @@
         <f t="shared" si="4"/>
         <v>1.2900000000000002E-4</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="5">
         <f t="shared" si="5"/>
         <v>1.7E-5</v>
       </c>
@@ -2692,7 +2764,7 @@
       <c r="D10" t="s">
         <v>104</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>0.000134,0.000134,0.000134,0.000018</v>
       </c>
@@ -2708,7 +2780,7 @@
         <f t="shared" si="4"/>
         <v>1.3400000000000003E-4</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="5">
         <f t="shared" si="5"/>
         <v>1.8E-5</v>
       </c>
@@ -2720,7 +2792,7 @@
       <c r="D11" t="s">
         <v>105</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>0.000139,0.000139,0.000139,0.000019</v>
       </c>
@@ -2736,7 +2808,7 @@
         <f t="shared" si="4"/>
         <v>1.3900000000000004E-4</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="5">
         <f t="shared" si="5"/>
         <v>1.9000000000000001E-5</v>
       </c>
@@ -2748,7 +2820,7 @@
       <c r="D12" t="s">
         <v>106</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>0.000144,0.000144,0.000144,0.00002</v>
       </c>
@@ -2764,7 +2836,7 @@
         <f t="shared" si="4"/>
         <v>1.4400000000000006E-4</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="5">
         <f t="shared" si="5"/>
         <v>2.0000000000000002E-5</v>
       </c>
@@ -2776,7 +2848,7 @@
       <c r="D13" t="s">
         <v>107</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>0.000149,0.000149,0.000149,0.000021</v>
       </c>
@@ -2792,7 +2864,7 @@
         <f t="shared" si="4"/>
         <v>1.4900000000000007E-4</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="5">
         <f t="shared" si="5"/>
         <v>2.1000000000000002E-5</v>
       </c>
@@ -2804,7 +2876,7 @@
       <c r="D14" t="s">
         <v>108</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>0.000154,0.000154,0.000154,0.000022</v>
       </c>
@@ -2820,7 +2892,7 @@
         <f t="shared" si="4"/>
         <v>1.5400000000000008E-4</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="5">
         <f t="shared" si="5"/>
         <v>2.2000000000000003E-5</v>
       </c>
@@ -2832,7 +2904,7 @@
       <c r="D15" t="s">
         <v>109</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>0.000159,0.000159,0.000159,0.000023</v>
       </c>
@@ -2848,7 +2920,7 @@
         <f t="shared" si="4"/>
         <v>1.590000000000001E-4</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="5">
         <f t="shared" si="5"/>
         <v>2.3000000000000003E-5</v>
       </c>
@@ -2860,7 +2932,7 @@
       <c r="D16" t="s">
         <v>110</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>0.000164,0.000164,0.000164,0.000024</v>
       </c>
@@ -2876,7 +2948,7 @@
         <f t="shared" si="4"/>
         <v>1.6400000000000011E-4</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="5">
         <f t="shared" si="5"/>
         <v>2.4000000000000004E-5</v>
       </c>
@@ -2888,7 +2960,7 @@
       <c r="D17" t="s">
         <v>111</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>0.000169,0.000169,0.000169,0.000025</v>
       </c>
@@ -2904,7 +2976,7 @@
         <f t="shared" si="4"/>
         <v>1.6900000000000012E-4</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="5">
         <f t="shared" si="5"/>
         <v>2.5000000000000005E-5</v>
       </c>
@@ -2916,7 +2988,7 @@
       <c r="D18" t="s">
         <v>112</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>0.000174,0.000174,0.000174,0.000026</v>
       </c>
@@ -2932,7 +3004,7 @@
         <f t="shared" si="4"/>
         <v>1.7400000000000014E-4</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="5">
         <f t="shared" si="5"/>
         <v>2.6000000000000005E-5</v>
       </c>
@@ -2944,7 +3016,7 @@
       <c r="D19" t="s">
         <v>113</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>0.000179,0.000179,0.000179,0.000027</v>
       </c>
@@ -2960,7 +3032,7 @@
         <f t="shared" si="4"/>
         <v>1.7900000000000015E-4</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="5">
         <f t="shared" si="5"/>
         <v>2.7000000000000006E-5</v>
       </c>
@@ -2972,7 +3044,7 @@
       <c r="D20" t="s">
         <v>130</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E20" s="6" t="str">
         <f>F20&amp;","&amp;G20&amp;","&amp;H20&amp;","&amp;I20&amp;","&amp;J20</f>
         <v>0.000184,0.000184,0.000184,0.000028,0.025</v>
       </c>
@@ -2988,7 +3060,7 @@
         <f t="shared" si="4"/>
         <v>1.8400000000000016E-4</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="5">
         <f t="shared" si="5"/>
         <v>2.8000000000000006E-5</v>
       </c>
@@ -3003,7 +3075,7 @@
       <c r="D21" t="s">
         <v>131</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E21" s="6" t="str">
         <f t="shared" ref="E21:E25" si="6">F21&amp;","&amp;G21&amp;","&amp;H21&amp;","&amp;I21&amp;","&amp;J21</f>
         <v>0.000189,0.000189,0.000189,0.000029,0.026</v>
       </c>
@@ -3019,7 +3091,7 @@
         <f t="shared" si="4"/>
         <v>1.8900000000000018E-4</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="5">
         <f t="shared" si="5"/>
         <v>2.9000000000000007E-5</v>
       </c>
@@ -3035,7 +3107,7 @@
       <c r="D22" t="s">
         <v>132</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E22" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0.000194,0.000194,0.000194,0.00003,0.027</v>
       </c>
@@ -3051,7 +3123,7 @@
         <f t="shared" si="4"/>
         <v>1.9400000000000019E-4</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="5">
         <f t="shared" si="5"/>
         <v>3.0000000000000008E-5</v>
       </c>
@@ -3067,7 +3139,7 @@
       <c r="D23" t="s">
         <v>133</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E23" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0.000199,0.000199,0.000199,0.000031,0.028</v>
       </c>
@@ -3083,7 +3155,7 @@
         <f t="shared" si="4"/>
         <v>1.990000000000002E-4</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="5">
         <f t="shared" si="5"/>
         <v>3.1000000000000008E-5</v>
       </c>
@@ -3099,7 +3171,7 @@
       <c r="D24" t="s">
         <v>134</v>
       </c>
-      <c r="E24" t="str">
+      <c r="E24" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0.000204,0.000204,0.000204,0.000032,0.029</v>
       </c>
@@ -3115,7 +3187,7 @@
         <f t="shared" si="4"/>
         <v>2.0400000000000022E-4</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="5">
         <f t="shared" si="5"/>
         <v>3.2000000000000005E-5</v>
       </c>
@@ -3131,7 +3203,7 @@
       <c r="D25" t="s">
         <v>135</v>
       </c>
-      <c r="E25" t="str">
+      <c r="E25" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0.000209,0.000209,0.000209,0.000033,0.03</v>
       </c>
@@ -3147,7 +3219,7 @@
         <f t="shared" si="4"/>
         <v>2.0900000000000023E-4</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="5">
         <f t="shared" si="5"/>
         <v>3.3000000000000003E-5</v>
       </c>
@@ -3163,24 +3235,24 @@
       <c r="D26" t="s">
         <v>136</v>
       </c>
-      <c r="E26" t="str">
+      <c r="E26" s="6" t="str">
         <f t="shared" ref="E26:E29" si="8">F26&amp;","&amp;G26&amp;","&amp;H26&amp;","&amp;I26&amp;","&amp;J26</f>
         <v>0.000214,0.000214,0.000214,0.000034,0.031</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26:F47" si="9">F25+0.000005</f>
+        <f t="shared" ref="F26:F59" si="9">F25+0.000005</f>
         <v>2.1400000000000024E-4</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26:G47" si="10">G25+0.000005</f>
+        <f t="shared" ref="G26:G59" si="10">G25+0.000005</f>
         <v>2.1400000000000024E-4</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:H47" si="11">H25+0.000005</f>
+        <f t="shared" ref="H26:H59" si="11">H25+0.000005</f>
         <v>2.1400000000000024E-4</v>
       </c>
-      <c r="I26">
-        <f t="shared" ref="I26:I47" si="12">I25+0.000001</f>
+      <c r="I26" s="5">
+        <f t="shared" ref="I26:I59" si="12">I25+0.000001</f>
         <v>3.4E-5</v>
       </c>
       <c r="J26">
@@ -3195,7 +3267,7 @@
       <c r="D27" t="s">
         <v>137</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E27" s="6" t="str">
         <f t="shared" si="8"/>
         <v>0.000219,0.000219,0.000219,0.000035,0.032</v>
       </c>
@@ -3211,7 +3283,7 @@
         <f t="shared" si="11"/>
         <v>2.1900000000000025E-4</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="5">
         <f t="shared" si="12"/>
         <v>3.4999999999999997E-5</v>
       </c>
@@ -3227,7 +3299,7 @@
       <c r="D28" t="s">
         <v>138</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E28" s="6" t="str">
         <f t="shared" si="8"/>
         <v>0.000224,0.000224,0.000224,0.000036,0.033</v>
       </c>
@@ -3243,7 +3315,7 @@
         <f t="shared" si="11"/>
         <v>2.2400000000000027E-4</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="5">
         <f t="shared" si="12"/>
         <v>3.5999999999999994E-5</v>
       </c>
@@ -3259,7 +3331,7 @@
       <c r="D29" t="s">
         <v>139</v>
       </c>
-      <c r="E29" t="str">
+      <c r="E29" s="6" t="str">
         <f t="shared" si="8"/>
         <v>0.000229,0.000229,0.000229,0.000037,0.034</v>
       </c>
@@ -3275,7 +3347,7 @@
         <f t="shared" si="11"/>
         <v>2.2900000000000028E-4</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="5">
         <f t="shared" si="12"/>
         <v>3.6999999999999991E-5</v>
       </c>
@@ -3291,7 +3363,7 @@
       <c r="D30" t="s">
         <v>141</v>
       </c>
-      <c r="E30" t="str">
+      <c r="E30" s="6" t="str">
         <f>F30&amp;","&amp;G30&amp;","&amp;H30&amp;","&amp;I30&amp;","&amp;J30&amp;","&amp;K30</f>
         <v>0.000234,0.000234,0.000234,0.000038,0.035,0.005</v>
       </c>
@@ -3307,7 +3379,7 @@
         <f t="shared" si="11"/>
         <v>2.3400000000000029E-4</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="5">
         <f t="shared" si="12"/>
         <v>3.7999999999999989E-5</v>
       </c>
@@ -3326,7 +3398,7 @@
       <c r="D31" t="s">
         <v>142</v>
       </c>
-      <c r="E31" t="str">
+      <c r="E31" s="6" t="str">
         <f t="shared" ref="E31:E47" si="13">F31&amp;","&amp;G31&amp;","&amp;H31&amp;","&amp;I31&amp;","&amp;J31&amp;","&amp;K31</f>
         <v>0.000239,0.000239,0.000239,0.000039,0.036,0.006</v>
       </c>
@@ -3342,7 +3414,7 @@
         <f t="shared" si="11"/>
         <v>2.3900000000000031E-4</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="5">
         <f t="shared" si="12"/>
         <v>3.8999999999999986E-5</v>
       </c>
@@ -3362,7 +3434,7 @@
       <c r="D32" t="s">
         <v>143</v>
       </c>
-      <c r="E32" t="str">
+      <c r="E32" s="6" t="str">
         <f t="shared" si="13"/>
         <v>0.000244,0.000244,0.000244,0.00004,0.037,0.007</v>
       </c>
@@ -3378,7 +3450,7 @@
         <f t="shared" si="11"/>
         <v>2.4400000000000032E-4</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="5">
         <f t="shared" si="12"/>
         <v>3.9999999999999983E-5</v>
       </c>
@@ -3391,14 +3463,14 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>72</v>
       </c>
       <c r="D33" t="s">
         <v>144</v>
       </c>
-      <c r="E33" t="str">
+      <c r="E33" s="6" t="str">
         <f t="shared" si="13"/>
         <v>0.000249,0.000249,0.000249,0.000041,0.038,0.008</v>
       </c>
@@ -3414,7 +3486,7 @@
         <f t="shared" si="11"/>
         <v>2.4900000000000031E-4</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="5">
         <f t="shared" si="12"/>
         <v>4.099999999999998E-5</v>
       </c>
@@ -3427,14 +3499,14 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>73</v>
       </c>
       <c r="D34" t="s">
         <v>147</v>
       </c>
-      <c r="E34" t="str">
+      <c r="E34" s="6" t="str">
         <f t="shared" si="13"/>
         <v>0.000254,0.000254,0.000254,0.000042,0.039,0.009</v>
       </c>
@@ -3450,7 +3522,7 @@
         <f t="shared" si="11"/>
         <v>2.5400000000000032E-4</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="5">
         <f t="shared" si="12"/>
         <v>4.1999999999999977E-5</v>
       </c>
@@ -3463,14 +3535,14 @@
         <v>9.0000000000000011E-3</v>
       </c>
     </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>74</v>
       </c>
       <c r="D35" t="s">
         <v>148</v>
       </c>
-      <c r="E35" t="str">
+      <c r="E35" s="6" t="str">
         <f t="shared" si="13"/>
         <v>0.000259,0.000259,0.000259,0.000043,0.04,0.01</v>
       </c>
@@ -3486,7 +3558,7 @@
         <f t="shared" si="11"/>
         <v>2.5900000000000033E-4</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="5">
         <f t="shared" si="12"/>
         <v>4.2999999999999975E-5</v>
       </c>
@@ -3499,14 +3571,14 @@
         <v>1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C36">
         <v>75</v>
       </c>
       <c r="D36" t="s">
         <v>149</v>
       </c>
-      <c r="E36" t="str">
+      <c r="E36" s="6" t="str">
         <f t="shared" si="13"/>
         <v>0.000264,0.000264,0.000264,0.000044,0.041,0.011</v>
       </c>
@@ -3522,7 +3594,7 @@
         <f t="shared" si="11"/>
         <v>2.6400000000000035E-4</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="5">
         <f t="shared" si="12"/>
         <v>4.3999999999999972E-5</v>
       </c>
@@ -3535,14 +3607,14 @@
         <v>1.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C37">
         <v>76</v>
       </c>
       <c r="D37" t="s">
         <v>150</v>
       </c>
-      <c r="E37" t="str">
+      <c r="E37" s="6" t="str">
         <f t="shared" si="13"/>
         <v>0.000269,0.000269,0.000269,0.000045,0.042,0.012</v>
       </c>
@@ -3558,7 +3630,7 @@
         <f t="shared" si="11"/>
         <v>2.6900000000000036E-4</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="5">
         <f t="shared" si="12"/>
         <v>4.4999999999999969E-5</v>
       </c>
@@ -3571,14 +3643,14 @@
         <v>1.2000000000000004E-2</v>
       </c>
     </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>77</v>
       </c>
       <c r="D38" t="s">
         <v>151</v>
       </c>
-      <c r="E38" t="str">
+      <c r="E38" s="6" t="str">
         <f t="shared" si="13"/>
         <v>0.000274,0.000274,0.000274,0.000046,0.043,0.013</v>
       </c>
@@ -3594,7 +3666,7 @@
         <f t="shared" si="11"/>
         <v>2.7400000000000037E-4</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="5">
         <f t="shared" si="12"/>
         <v>4.5999999999999966E-5</v>
       </c>
@@ -3607,14 +3679,14 @@
         <v>1.3000000000000005E-2</v>
       </c>
     </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>78</v>
       </c>
       <c r="D39" t="s">
         <v>152</v>
       </c>
-      <c r="E39" t="str">
+      <c r="E39" s="6" t="str">
         <f t="shared" si="13"/>
         <v>0.000279,0.000279,0.000279,0.000047,0.044,0.014</v>
       </c>
@@ -3630,7 +3702,7 @@
         <f t="shared" si="11"/>
         <v>2.7900000000000038E-4</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="5">
         <f t="shared" si="12"/>
         <v>4.6999999999999963E-5</v>
       </c>
@@ -3643,14 +3715,14 @@
         <v>1.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>79</v>
       </c>
       <c r="D40" t="s">
         <v>153</v>
       </c>
-      <c r="E40" t="str">
+      <c r="E40" s="6" t="str">
         <f t="shared" si="13"/>
         <v>0.000284,0.000284,0.000284,0.000048,0.045,0.015</v>
       </c>
@@ -3666,7 +3738,7 @@
         <f t="shared" si="11"/>
         <v>2.840000000000004E-4</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="5">
         <f t="shared" si="12"/>
         <v>4.7999999999999961E-5</v>
       </c>
@@ -3679,14 +3751,14 @@
         <v>1.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>80</v>
       </c>
       <c r="D41" t="s">
         <v>154</v>
       </c>
-      <c r="E41" t="str">
+      <c r="E41" s="6" t="str">
         <f t="shared" si="13"/>
         <v>0.000289,0.000289,0.000289,0.000049,0.046,0.016</v>
       </c>
@@ -3702,7 +3774,7 @@
         <f t="shared" si="11"/>
         <v>2.8900000000000041E-4</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="5">
         <f t="shared" si="12"/>
         <v>4.8999999999999958E-5</v>
       </c>
@@ -3715,16 +3787,16 @@
         <v>1.6000000000000007E-2</v>
       </c>
     </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>81</v>
       </c>
       <c r="D42" t="s">
         <v>155</v>
       </c>
-      <c r="E42" t="str">
-        <f t="shared" si="13"/>
-        <v>0.000294,0.000294,0.000294,0.00005,0.047,0.017</v>
+      <c r="E42" s="6" t="str">
+        <f>F42&amp;","&amp;G42&amp;","&amp;H42&amp;","&amp;I42&amp;","&amp;J42&amp;","&amp;K42&amp;","&amp;L42</f>
+        <v>0.000294,0.000294,0.000294,0.00005,0.047,0.017,0.005</v>
       </c>
       <c r="F42">
         <f t="shared" si="9"/>
@@ -3738,7 +3810,7 @@
         <f t="shared" si="11"/>
         <v>2.9400000000000042E-4</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="5">
         <f t="shared" si="12"/>
         <v>4.9999999999999955E-5</v>
       </c>
@@ -3750,17 +3822,20 @@
         <f t="shared" si="7"/>
         <v>1.7000000000000008E-2</v>
       </c>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C43">
         <v>82</v>
       </c>
       <c r="D43" t="s">
         <v>156</v>
       </c>
-      <c r="E43" t="str">
-        <f t="shared" si="13"/>
-        <v>0.000299,0.000299,0.000299,0.000051,0.048,0.018</v>
+      <c r="E43" s="6" t="str">
+        <f t="shared" ref="E43:E59" si="14">F43&amp;","&amp;G43&amp;","&amp;H43&amp;","&amp;I43&amp;","&amp;J43&amp;","&amp;K43&amp;","&amp;L43</f>
+        <v>0.000299,0.000299,0.000299,0.000051,0.048,0.018,0.006</v>
       </c>
       <c r="F43">
         <f t="shared" si="9"/>
@@ -3774,7 +3849,7 @@
         <f t="shared" si="11"/>
         <v>2.9900000000000044E-4</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="5">
         <f t="shared" si="12"/>
         <v>5.0999999999999952E-5</v>
       </c>
@@ -3786,17 +3861,21 @@
         <f t="shared" si="7"/>
         <v>1.8000000000000009E-2</v>
       </c>
-    </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <f>L42+0.001</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C44">
         <v>83</v>
       </c>
       <c r="D44" t="s">
         <v>157</v>
       </c>
-      <c r="E44" t="str">
-        <f t="shared" si="13"/>
-        <v>0.000304,0.000304,0.000304,5.19999999999999E-05,0.049,0.019</v>
+      <c r="E44" s="6" t="str">
+        <f>ROUNDUP(F44,6)&amp;","&amp;ROUNDUP(G44,6)&amp;","&amp;ROUNDUP(H44,6)&amp;","&amp;ROUNDUP(I44,7)&amp;","&amp;ROUNDUP(J44,7)&amp;","&amp;ROUNDUP(K44,3)&amp;","&amp;ROUNDUP(L44,3)</f>
+        <v>0.000304,0.000304,0.000304,0.000052,0.049,0.019,0.007</v>
       </c>
       <c r="F44">
         <f t="shared" si="9"/>
@@ -3810,7 +3889,7 @@
         <f t="shared" si="11"/>
         <v>3.0400000000000045E-4</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="5">
         <f t="shared" si="12"/>
         <v>5.1999999999999949E-5</v>
       </c>
@@ -3822,17 +3901,33 @@
         <f t="shared" si="7"/>
         <v>1.900000000000001E-2</v>
       </c>
-    </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <f t="shared" ref="L44" si="15">L43+0.001</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M44">
+        <v>3.0400000000000045E-4</v>
+      </c>
+      <c r="N44">
+        <v>3.0400000000000045E-4</v>
+      </c>
+      <c r="O44">
+        <v>3.0400000000000045E-4</v>
+      </c>
+      <c r="P44">
+        <v>5.1999999999999949E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C45">
         <v>84</v>
       </c>
       <c r="D45" t="s">
         <v>158</v>
       </c>
-      <c r="E45" t="str">
-        <f t="shared" si="13"/>
-        <v>0.000309,0.000309,0.000309,5.29999999999999E-05,0.05,0.02</v>
+      <c r="E45" s="6" t="str">
+        <f t="shared" ref="E45:E59" si="16">ROUNDUP(F45,6)&amp;","&amp;ROUNDUP(G45,6)&amp;","&amp;ROUNDUP(H45,6)&amp;","&amp;ROUNDUP(I45,7)&amp;","&amp;ROUNDUP(J45,7)&amp;","&amp;ROUNDUP(K45,3)&amp;","&amp;ROUNDUP(L45,3)</f>
+        <v>0.000309,0.000309,0.000309,0.000053,0.05,0.02,0.008</v>
       </c>
       <c r="F45">
         <f t="shared" si="9"/>
@@ -3846,7 +3941,7 @@
         <f t="shared" si="11"/>
         <v>3.0900000000000046E-4</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="5">
         <f t="shared" si="12"/>
         <v>5.2999999999999947E-5</v>
       </c>
@@ -3858,14 +3953,18 @@
         <f t="shared" si="7"/>
         <v>2.0000000000000011E-2</v>
       </c>
-    </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <f t="shared" ref="L45" si="17">L44+0.001</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C46">
         <v>85</v>
       </c>
-      <c r="E46" t="str">
-        <f t="shared" si="13"/>
-        <v>0.000314,0.000314,0.000314,5.39999999999999E-05,0.051,0.021</v>
+      <c r="E46" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>0.000314,0.000314,0.000314,0.000054,0.051,0.021,0.009</v>
       </c>
       <c r="F46">
         <f t="shared" si="9"/>
@@ -3879,7 +3978,7 @@
         <f t="shared" si="11"/>
         <v>3.1400000000000048E-4</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="5">
         <f t="shared" si="12"/>
         <v>5.3999999999999944E-5</v>
       </c>
@@ -3891,14 +3990,18 @@
         <f t="shared" si="7"/>
         <v>2.1000000000000012E-2</v>
       </c>
-    </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L46">
+        <f t="shared" ref="L46" si="18">L45+0.001</f>
+        <v>9.0000000000000011E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C47">
         <v>86</v>
       </c>
-      <c r="E47" t="str">
-        <f t="shared" si="13"/>
-        <v>0.000319,0.000319,0.000319,5.49999999999999E-05,0.052,0.022</v>
+      <c r="E47" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>0.000319,0.000319,0.000319,0.000055,0.052,0.022,0.01</v>
       </c>
       <c r="F47">
         <f t="shared" si="9"/>
@@ -3912,7 +4015,7 @@
         <f t="shared" si="11"/>
         <v>3.1900000000000049E-4</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="5">
         <f t="shared" si="12"/>
         <v>5.4999999999999941E-5</v>
       </c>
@@ -3922,6 +4025,454 @@
       </c>
       <c r="K47">
         <f t="shared" si="7"/>
+        <v>2.2000000000000013E-2</v>
+      </c>
+      <c r="L47">
+        <f t="shared" ref="L47" si="19">L46+0.001</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>87</v>
+      </c>
+      <c r="E48" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>0.000325,0.000325,0.000325,0.000056,0.053,0.023,0.011</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="9"/>
+        <v>3.240000000000005E-4</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="10"/>
+        <v>3.240000000000005E-4</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="11"/>
+        <v>3.240000000000005E-4</v>
+      </c>
+      <c r="I48" s="5">
+        <f t="shared" si="12"/>
+        <v>5.5999999999999938E-5</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ref="J48:K48" si="20">J47+0.001</f>
+        <v>5.3000000000000026E-2</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="20"/>
+        <v>2.3000000000000013E-2</v>
+      </c>
+      <c r="L48">
+        <f t="shared" ref="L48" si="21">L47+0.001</f>
+        <v>1.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>88</v>
+      </c>
+      <c r="E49" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>0.00033,0.00033,0.00033,0.000057,0.054,0.024,0.012</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="9"/>
+        <v>3.2900000000000052E-4</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="10"/>
+        <v>3.2900000000000052E-4</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="11"/>
+        <v>3.2900000000000052E-4</v>
+      </c>
+      <c r="I49" s="5">
+        <f t="shared" si="12"/>
+        <v>5.6999999999999935E-5</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ref="J49:K49" si="22">J48+0.001</f>
+        <v>5.4000000000000027E-2</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="22"/>
+        <v>2.4000000000000014E-2</v>
+      </c>
+      <c r="L49">
+        <f t="shared" ref="L49" si="23">L48+0.001</f>
+        <v>1.2000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>89</v>
+      </c>
+      <c r="E50" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>0.000335,0.000335,0.000335,0.000058,0.055,0.025,0.013</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="9"/>
+        <v>3.3400000000000053E-4</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="10"/>
+        <v>3.3400000000000053E-4</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="11"/>
+        <v>3.3400000000000053E-4</v>
+      </c>
+      <c r="I50" s="5">
+        <f t="shared" si="12"/>
+        <v>5.7999999999999933E-5</v>
+      </c>
+      <c r="J50">
+        <f t="shared" ref="J50:K50" si="24">J49+0.001</f>
+        <v>5.5000000000000028E-2</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="24"/>
+        <v>2.5000000000000015E-2</v>
+      </c>
+      <c r="L50">
+        <f t="shared" ref="L50" si="25">L49+0.001</f>
+        <v>1.3000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>90</v>
+      </c>
+      <c r="E51" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>0.00034,0.00034,0.00034,0.000059,0.056,0.026,0.014</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="9"/>
+        <v>3.3900000000000054E-4</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="10"/>
+        <v>3.3900000000000054E-4</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="11"/>
+        <v>3.3900000000000054E-4</v>
+      </c>
+      <c r="I51" s="5">
+        <f t="shared" si="12"/>
+        <v>5.899999999999993E-5</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ref="J51:K51" si="26">J50+0.001</f>
+        <v>5.6000000000000029E-2</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="26"/>
+        <v>2.6000000000000016E-2</v>
+      </c>
+      <c r="L51">
+        <f t="shared" ref="L51" si="27">L50+0.001</f>
+        <v>1.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>91</v>
+      </c>
+      <c r="E52" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>0.000345,0.000345,0.000345,0.00006,0.057,0.027,0.015</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="9"/>
+        <v>3.4400000000000056E-4</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="10"/>
+        <v>3.4400000000000056E-4</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="11"/>
+        <v>3.4400000000000056E-4</v>
+      </c>
+      <c r="I52" s="5">
+        <f t="shared" si="12"/>
+        <v>5.9999999999999927E-5</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ref="J52:K52" si="28">J51+0.001</f>
+        <v>5.700000000000003E-2</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="28"/>
+        <v>2.7000000000000017E-2</v>
+      </c>
+      <c r="L52">
+        <f t="shared" ref="L52" si="29">L51+0.001</f>
+        <v>1.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>92</v>
+      </c>
+      <c r="E53" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>0.00035,0.00035,0.00035,0.000061,0.058,0.028,0.016</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="9"/>
+        <v>3.4900000000000057E-4</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="10"/>
+        <v>3.4900000000000057E-4</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="11"/>
+        <v>3.4900000000000057E-4</v>
+      </c>
+      <c r="I53" s="5">
+        <f t="shared" si="12"/>
+        <v>6.0999999999999924E-5</v>
+      </c>
+      <c r="J53">
+        <f t="shared" ref="J53:K53" si="30">J52+0.001</f>
+        <v>5.8000000000000031E-2</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="30"/>
+        <v>2.8000000000000018E-2</v>
+      </c>
+      <c r="L53">
+        <f t="shared" ref="L53" si="31">L52+0.001</f>
+        <v>1.6000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>93</v>
+      </c>
+      <c r="E54" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>0.000355,0.000355,0.000355,0.000062,0.059,0.029,0.017</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="9"/>
+        <v>3.5400000000000058E-4</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="10"/>
+        <v>3.5400000000000058E-4</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="11"/>
+        <v>3.5400000000000058E-4</v>
+      </c>
+      <c r="I54" s="5">
+        <f t="shared" si="12"/>
+        <v>6.1999999999999921E-5</v>
+      </c>
+      <c r="J54">
+        <f t="shared" ref="J54:K54" si="32">J53+0.001</f>
+        <v>5.9000000000000032E-2</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="32"/>
+        <v>2.9000000000000019E-2</v>
+      </c>
+      <c r="L54">
+        <f t="shared" ref="L54" si="33">L53+0.001</f>
+        <v>1.7000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>94</v>
+      </c>
+      <c r="E55" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>0.00036,0.00036,0.00036,0.000063,0.06,0.03,0.018</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="9"/>
+        <v>3.5900000000000059E-4</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="10"/>
+        <v>3.5900000000000059E-4</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="11"/>
+        <v>3.5900000000000059E-4</v>
+      </c>
+      <c r="I55" s="5">
+        <f t="shared" si="12"/>
+        <v>6.2999999999999919E-5</v>
+      </c>
+      <c r="J55">
+        <f t="shared" ref="J55:K55" si="34">J54+0.001</f>
+        <v>6.0000000000000032E-2</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="34"/>
+        <v>3.000000000000002E-2</v>
+      </c>
+      <c r="L55">
+        <f t="shared" ref="L55" si="35">L54+0.001</f>
+        <v>1.8000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>95</v>
+      </c>
+      <c r="E56" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>0.000365,0.000365,0.000365,0.000064,0.061,0.031,0.019</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="9"/>
+        <v>3.6400000000000061E-4</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="10"/>
+        <v>3.6400000000000061E-4</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="11"/>
+        <v>3.6400000000000061E-4</v>
+      </c>
+      <c r="I56" s="5">
+        <f t="shared" si="12"/>
+        <v>6.3999999999999916E-5</v>
+      </c>
+      <c r="J56">
+        <f t="shared" ref="J56:K56" si="36">J55+0.001</f>
+        <v>6.1000000000000033E-2</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="36"/>
+        <v>3.1000000000000021E-2</v>
+      </c>
+      <c r="L56">
+        <f t="shared" ref="L56" si="37">L55+0.001</f>
+        <v>1.900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>96</v>
+      </c>
+      <c r="E57" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>0.00037,0.00037,0.00037,0.000065,0.062,0.032,0.02</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="9"/>
+        <v>3.6900000000000062E-4</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="10"/>
+        <v>3.6900000000000062E-4</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="11"/>
+        <v>3.6900000000000062E-4</v>
+      </c>
+      <c r="I57" s="5">
+        <f t="shared" si="12"/>
+        <v>6.4999999999999913E-5</v>
+      </c>
+      <c r="J57">
+        <f t="shared" ref="J57:K57" si="38">J56+0.001</f>
+        <v>6.2000000000000034E-2</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="38"/>
+        <v>3.2000000000000021E-2</v>
+      </c>
+      <c r="L57">
+        <f t="shared" ref="L57" si="39">L56+0.001</f>
+        <v>2.0000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>97</v>
+      </c>
+      <c r="E58" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>0.000375,0.000375,0.000375,0.000066,0.063,0.033,0.021</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="9"/>
+        <v>3.7400000000000063E-4</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="10"/>
+        <v>3.7400000000000063E-4</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="11"/>
+        <v>3.7400000000000063E-4</v>
+      </c>
+      <c r="I58" s="5">
+        <f t="shared" si="12"/>
+        <v>6.599999999999991E-5</v>
+      </c>
+      <c r="J58">
+        <f t="shared" ref="J58:K58" si="40">J57+0.001</f>
+        <v>6.3000000000000028E-2</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="40"/>
+        <v>3.3000000000000022E-2</v>
+      </c>
+      <c r="L58">
+        <f t="shared" ref="L58" si="41">L57+0.001</f>
+        <v>2.1000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>98</v>
+      </c>
+      <c r="E59" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>0.00038,0.00038,0.00038,0.000067,0.064,0.034,0.022</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="9"/>
+        <v>3.7900000000000065E-4</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="10"/>
+        <v>3.7900000000000065E-4</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="11"/>
+        <v>3.7900000000000065E-4</v>
+      </c>
+      <c r="I59" s="5">
+        <f t="shared" si="12"/>
+        <v>6.6999999999999907E-5</v>
+      </c>
+      <c r="J59">
+        <f t="shared" ref="J59:K59" si="42">J58+0.001</f>
+        <v>6.4000000000000029E-2</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="42"/>
+        <v>3.4000000000000023E-2</v>
+      </c>
+      <c r="L59">
+        <f t="shared" ref="L59" si="43">L58+0.001</f>
         <v>2.2000000000000013E-2</v>
       </c>
     </row>

--- a/Assets/06.Table/GradeTestTable.xlsx
+++ b/Assets/06.Table/GradeTestTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5752C23E-874D-4C62-862D-2D3675DEEAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9DBBD7-0E37-4609-864D-EDE6CB8888FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GradeTestTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="164">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -620,6 +620,22 @@
   </si>
   <si>
     <t>41,38,40,44,52,56,74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000설</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,7 +698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -697,12 +713,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1019,11 +1029,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D89" sqref="D89"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2110,7 +2120,7 @@
         <v>1마</v>
       </c>
       <c r="D63" s="4" t="str">
-        <f t="shared" ref="D63:D86" si="0">D62</f>
+        <f t="shared" ref="D63:D90" si="0">D62</f>
         <v>41,38,40,44,52</v>
       </c>
       <c r="E63" s="1" t="str">
@@ -2186,7 +2196,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B86" si="2">B66*10</f>
+        <f t="shared" ref="B67:B90" si="2">B66*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="C67" t="str">
@@ -2597,6 +2607,90 @@
       <c r="E86" s="1" t="str">
         <f>VLOOKUP(A86,abilvalue!C:J,3,FALSE)</f>
         <v>0.000309,0.000309,0.000309,0.000053,0.05,0.02,0.008</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+132</v>
+      </c>
+      <c r="C87" t="str">
+        <f>VLOOKUP(A87,abilvalue!C:J,2,FALSE)</f>
+        <v>1설</v>
+      </c>
+      <c r="D87" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E87" s="1" t="str">
+        <f>VLOOKUP(A87,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000314,0.000314,0.000314,0.000054,0.051,0.021,0.009</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+133</v>
+      </c>
+      <c r="C88" t="str">
+        <f>VLOOKUP(A88,abilvalue!C:J,2,FALSE)</f>
+        <v>10설</v>
+      </c>
+      <c r="D88" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E88" s="1" t="str">
+        <f>VLOOKUP(A88,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000319,0.000319,0.000319,0.000055,0.052,0.022,0.01</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+134</v>
+      </c>
+      <c r="C89" t="str">
+        <f>VLOOKUP(A89,abilvalue!C:J,2,FALSE)</f>
+        <v>100설</v>
+      </c>
+      <c r="D89" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E89" s="1" t="str">
+        <f>VLOOKUP(A89,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000325,0.000325,0.000325,0.000056,0.053,0.023,0.011</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+135</v>
+      </c>
+      <c r="C90" t="str">
+        <f>VLOOKUP(A90,abilvalue!C:J,2,FALSE)</f>
+        <v>1000설</v>
+      </c>
+      <c r="D90" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E90" s="1" t="str">
+        <f>VLOOKUP(A90,abilvalue!C:J,3,FALSE)</f>
+        <v>0.00033,0.00033,0.00033,0.000057,0.054,0.024,0.012</v>
       </c>
     </row>
   </sheetData>
@@ -2610,14 +2704,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
   <dimension ref="C5:P59"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44:E59"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="103.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
@@ -2639,7 +2733,7 @@
       <c r="H5">
         <v>3</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5">
         <v>4</v>
       </c>
       <c r="J5">
@@ -2656,7 +2750,7 @@
       <c r="D6" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="6" t="str">
+      <c r="E6" t="str">
         <f>F6&amp;","&amp;G6&amp;","&amp;H6&amp;","&amp;I6</f>
         <v>0.000114,0.000114,0.000114,0.000014</v>
       </c>
@@ -2669,7 +2763,7 @@
       <c r="H6">
         <v>1.1400000000000001E-4</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6">
         <v>1.4E-5</v>
       </c>
     </row>
@@ -2680,7 +2774,7 @@
       <c r="D7" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" t="str">
         <f t="shared" ref="E7:E19" si="0">F7&amp;","&amp;G7&amp;","&amp;H7&amp;","&amp;I7</f>
         <v>0.000119,0.000119,0.000119,0.000015</v>
       </c>
@@ -2696,7 +2790,7 @@
         <f t="shared" si="1"/>
         <v>1.1900000000000001E-4</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7">
         <f>I6+0.000001</f>
         <v>1.5E-5</v>
       </c>
@@ -2708,7 +2802,7 @@
       <c r="D8" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="6" t="str">
+      <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>0.000124,0.000124,0.000124,0.000016</v>
       </c>
@@ -2724,7 +2818,7 @@
         <f t="shared" ref="H8:H25" si="4">H7+0.000005</f>
         <v>1.2400000000000001E-4</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8">
         <f t="shared" ref="I8:I25" si="5">I7+0.000001</f>
         <v>1.5999999999999999E-5</v>
       </c>
@@ -2736,7 +2830,7 @@
       <c r="D9" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="6" t="str">
+      <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>0.000129,0.000129,0.000129,0.000017</v>
       </c>
@@ -2752,7 +2846,7 @@
         <f t="shared" si="4"/>
         <v>1.2900000000000002E-4</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9">
         <f t="shared" si="5"/>
         <v>1.7E-5</v>
       </c>
@@ -2764,7 +2858,7 @@
       <c r="D10" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="6" t="str">
+      <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>0.000134,0.000134,0.000134,0.000018</v>
       </c>
@@ -2780,7 +2874,7 @@
         <f t="shared" si="4"/>
         <v>1.3400000000000003E-4</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10">
         <f t="shared" si="5"/>
         <v>1.8E-5</v>
       </c>
@@ -2792,7 +2886,7 @@
       <c r="D11" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="6" t="str">
+      <c r="E11" t="str">
         <f t="shared" si="0"/>
         <v>0.000139,0.000139,0.000139,0.000019</v>
       </c>
@@ -2808,7 +2902,7 @@
         <f t="shared" si="4"/>
         <v>1.3900000000000004E-4</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11">
         <f t="shared" si="5"/>
         <v>1.9000000000000001E-5</v>
       </c>
@@ -2820,7 +2914,7 @@
       <c r="D12" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="6" t="str">
+      <c r="E12" t="str">
         <f t="shared" si="0"/>
         <v>0.000144,0.000144,0.000144,0.00002</v>
       </c>
@@ -2836,7 +2930,7 @@
         <f t="shared" si="4"/>
         <v>1.4400000000000006E-4</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12">
         <f t="shared" si="5"/>
         <v>2.0000000000000002E-5</v>
       </c>
@@ -2848,7 +2942,7 @@
       <c r="D13" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="6" t="str">
+      <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>0.000149,0.000149,0.000149,0.000021</v>
       </c>
@@ -2864,7 +2958,7 @@
         <f t="shared" si="4"/>
         <v>1.4900000000000007E-4</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13">
         <f t="shared" si="5"/>
         <v>2.1000000000000002E-5</v>
       </c>
@@ -2876,7 +2970,7 @@
       <c r="D14" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="6" t="str">
+      <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>0.000154,0.000154,0.000154,0.000022</v>
       </c>
@@ -2892,7 +2986,7 @@
         <f t="shared" si="4"/>
         <v>1.5400000000000008E-4</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14">
         <f t="shared" si="5"/>
         <v>2.2000000000000003E-5</v>
       </c>
@@ -2904,7 +2998,7 @@
       <c r="D15" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="6" t="str">
+      <c r="E15" t="str">
         <f t="shared" si="0"/>
         <v>0.000159,0.000159,0.000159,0.000023</v>
       </c>
@@ -2920,7 +3014,7 @@
         <f t="shared" si="4"/>
         <v>1.590000000000001E-4</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15">
         <f t="shared" si="5"/>
         <v>2.3000000000000003E-5</v>
       </c>
@@ -2932,7 +3026,7 @@
       <c r="D16" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="6" t="str">
+      <c r="E16" t="str">
         <f t="shared" si="0"/>
         <v>0.000164,0.000164,0.000164,0.000024</v>
       </c>
@@ -2948,7 +3042,7 @@
         <f t="shared" si="4"/>
         <v>1.6400000000000011E-4</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16">
         <f t="shared" si="5"/>
         <v>2.4000000000000004E-5</v>
       </c>
@@ -2960,7 +3054,7 @@
       <c r="D17" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="6" t="str">
+      <c r="E17" t="str">
         <f t="shared" si="0"/>
         <v>0.000169,0.000169,0.000169,0.000025</v>
       </c>
@@ -2976,7 +3070,7 @@
         <f t="shared" si="4"/>
         <v>1.6900000000000012E-4</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17">
         <f t="shared" si="5"/>
         <v>2.5000000000000005E-5</v>
       </c>
@@ -2988,7 +3082,7 @@
       <c r="D18" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="6" t="str">
+      <c r="E18" t="str">
         <f t="shared" si="0"/>
         <v>0.000174,0.000174,0.000174,0.000026</v>
       </c>
@@ -3004,7 +3098,7 @@
         <f t="shared" si="4"/>
         <v>1.7400000000000014E-4</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18">
         <f t="shared" si="5"/>
         <v>2.6000000000000005E-5</v>
       </c>
@@ -3016,7 +3110,7 @@
       <c r="D19" t="s">
         <v>113</v>
       </c>
-      <c r="E19" s="6" t="str">
+      <c r="E19" t="str">
         <f t="shared" si="0"/>
         <v>0.000179,0.000179,0.000179,0.000027</v>
       </c>
@@ -3032,7 +3126,7 @@
         <f t="shared" si="4"/>
         <v>1.7900000000000015E-4</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19">
         <f t="shared" si="5"/>
         <v>2.7000000000000006E-5</v>
       </c>
@@ -3044,7 +3138,7 @@
       <c r="D20" t="s">
         <v>130</v>
       </c>
-      <c r="E20" s="6" t="str">
+      <c r="E20" t="str">
         <f>F20&amp;","&amp;G20&amp;","&amp;H20&amp;","&amp;I20&amp;","&amp;J20</f>
         <v>0.000184,0.000184,0.000184,0.000028,0.025</v>
       </c>
@@ -3060,7 +3154,7 @@
         <f t="shared" si="4"/>
         <v>1.8400000000000016E-4</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20">
         <f t="shared" si="5"/>
         <v>2.8000000000000006E-5</v>
       </c>
@@ -3075,7 +3169,7 @@
       <c r="D21" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="6" t="str">
+      <c r="E21" t="str">
         <f t="shared" ref="E21:E25" si="6">F21&amp;","&amp;G21&amp;","&amp;H21&amp;","&amp;I21&amp;","&amp;J21</f>
         <v>0.000189,0.000189,0.000189,0.000029,0.026</v>
       </c>
@@ -3091,7 +3185,7 @@
         <f t="shared" si="4"/>
         <v>1.8900000000000018E-4</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21">
         <f t="shared" si="5"/>
         <v>2.9000000000000007E-5</v>
       </c>
@@ -3107,7 +3201,7 @@
       <c r="D22" t="s">
         <v>132</v>
       </c>
-      <c r="E22" s="6" t="str">
+      <c r="E22" t="str">
         <f t="shared" si="6"/>
         <v>0.000194,0.000194,0.000194,0.00003,0.027</v>
       </c>
@@ -3123,7 +3217,7 @@
         <f t="shared" si="4"/>
         <v>1.9400000000000019E-4</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22">
         <f t="shared" si="5"/>
         <v>3.0000000000000008E-5</v>
       </c>
@@ -3139,7 +3233,7 @@
       <c r="D23" t="s">
         <v>133</v>
       </c>
-      <c r="E23" s="6" t="str">
+      <c r="E23" t="str">
         <f t="shared" si="6"/>
         <v>0.000199,0.000199,0.000199,0.000031,0.028</v>
       </c>
@@ -3155,7 +3249,7 @@
         <f t="shared" si="4"/>
         <v>1.990000000000002E-4</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23">
         <f t="shared" si="5"/>
         <v>3.1000000000000008E-5</v>
       </c>
@@ -3171,7 +3265,7 @@
       <c r="D24" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="6" t="str">
+      <c r="E24" t="str">
         <f t="shared" si="6"/>
         <v>0.000204,0.000204,0.000204,0.000032,0.029</v>
       </c>
@@ -3187,7 +3281,7 @@
         <f t="shared" si="4"/>
         <v>2.0400000000000022E-4</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24">
         <f t="shared" si="5"/>
         <v>3.2000000000000005E-5</v>
       </c>
@@ -3203,7 +3297,7 @@
       <c r="D25" t="s">
         <v>135</v>
       </c>
-      <c r="E25" s="6" t="str">
+      <c r="E25" t="str">
         <f t="shared" si="6"/>
         <v>0.000209,0.000209,0.000209,0.000033,0.03</v>
       </c>
@@ -3219,7 +3313,7 @@
         <f t="shared" si="4"/>
         <v>2.0900000000000023E-4</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25">
         <f t="shared" si="5"/>
         <v>3.3000000000000003E-5</v>
       </c>
@@ -3235,7 +3329,7 @@
       <c r="D26" t="s">
         <v>136</v>
       </c>
-      <c r="E26" s="6" t="str">
+      <c r="E26" t="str">
         <f t="shared" ref="E26:E29" si="8">F26&amp;","&amp;G26&amp;","&amp;H26&amp;","&amp;I26&amp;","&amp;J26</f>
         <v>0.000214,0.000214,0.000214,0.000034,0.031</v>
       </c>
@@ -3251,7 +3345,7 @@
         <f t="shared" ref="H26:H59" si="11">H25+0.000005</f>
         <v>2.1400000000000024E-4</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26">
         <f t="shared" ref="I26:I59" si="12">I25+0.000001</f>
         <v>3.4E-5</v>
       </c>
@@ -3267,7 +3361,7 @@
       <c r="D27" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="6" t="str">
+      <c r="E27" t="str">
         <f t="shared" si="8"/>
         <v>0.000219,0.000219,0.000219,0.000035,0.032</v>
       </c>
@@ -3283,7 +3377,7 @@
         <f t="shared" si="11"/>
         <v>2.1900000000000025E-4</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27">
         <f t="shared" si="12"/>
         <v>3.4999999999999997E-5</v>
       </c>
@@ -3299,7 +3393,7 @@
       <c r="D28" t="s">
         <v>138</v>
       </c>
-      <c r="E28" s="6" t="str">
+      <c r="E28" t="str">
         <f t="shared" si="8"/>
         <v>0.000224,0.000224,0.000224,0.000036,0.033</v>
       </c>
@@ -3315,7 +3409,7 @@
         <f t="shared" si="11"/>
         <v>2.2400000000000027E-4</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28">
         <f t="shared" si="12"/>
         <v>3.5999999999999994E-5</v>
       </c>
@@ -3331,7 +3425,7 @@
       <c r="D29" t="s">
         <v>139</v>
       </c>
-      <c r="E29" s="6" t="str">
+      <c r="E29" t="str">
         <f t="shared" si="8"/>
         <v>0.000229,0.000229,0.000229,0.000037,0.034</v>
       </c>
@@ -3347,7 +3441,7 @@
         <f t="shared" si="11"/>
         <v>2.2900000000000028E-4</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29">
         <f t="shared" si="12"/>
         <v>3.6999999999999991E-5</v>
       </c>
@@ -3363,7 +3457,7 @@
       <c r="D30" t="s">
         <v>141</v>
       </c>
-      <c r="E30" s="6" t="str">
+      <c r="E30" t="str">
         <f>F30&amp;","&amp;G30&amp;","&amp;H30&amp;","&amp;I30&amp;","&amp;J30&amp;","&amp;K30</f>
         <v>0.000234,0.000234,0.000234,0.000038,0.035,0.005</v>
       </c>
@@ -3379,7 +3473,7 @@
         <f t="shared" si="11"/>
         <v>2.3400000000000029E-4</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30">
         <f t="shared" si="12"/>
         <v>3.7999999999999989E-5</v>
       </c>
@@ -3398,8 +3492,8 @@
       <c r="D31" t="s">
         <v>142</v>
       </c>
-      <c r="E31" s="6" t="str">
-        <f t="shared" ref="E31:E47" si="13">F31&amp;","&amp;G31&amp;","&amp;H31&amp;","&amp;I31&amp;","&amp;J31&amp;","&amp;K31</f>
+      <c r="E31" t="str">
+        <f t="shared" ref="E31:E41" si="13">F31&amp;","&amp;G31&amp;","&amp;H31&amp;","&amp;I31&amp;","&amp;J31&amp;","&amp;K31</f>
         <v>0.000239,0.000239,0.000239,0.000039,0.036,0.006</v>
       </c>
       <c r="F31">
@@ -3414,7 +3508,7 @@
         <f t="shared" si="11"/>
         <v>2.3900000000000031E-4</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31">
         <f t="shared" si="12"/>
         <v>3.8999999999999986E-5</v>
       </c>
@@ -3434,7 +3528,7 @@
       <c r="D32" t="s">
         <v>143</v>
       </c>
-      <c r="E32" s="6" t="str">
+      <c r="E32" t="str">
         <f t="shared" si="13"/>
         <v>0.000244,0.000244,0.000244,0.00004,0.037,0.007</v>
       </c>
@@ -3450,7 +3544,7 @@
         <f t="shared" si="11"/>
         <v>2.4400000000000032E-4</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32">
         <f t="shared" si="12"/>
         <v>3.9999999999999983E-5</v>
       </c>
@@ -3470,7 +3564,7 @@
       <c r="D33" t="s">
         <v>144</v>
       </c>
-      <c r="E33" s="6" t="str">
+      <c r="E33" t="str">
         <f t="shared" si="13"/>
         <v>0.000249,0.000249,0.000249,0.000041,0.038,0.008</v>
       </c>
@@ -3486,7 +3580,7 @@
         <f t="shared" si="11"/>
         <v>2.4900000000000031E-4</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33">
         <f t="shared" si="12"/>
         <v>4.099999999999998E-5</v>
       </c>
@@ -3506,7 +3600,7 @@
       <c r="D34" t="s">
         <v>147</v>
       </c>
-      <c r="E34" s="6" t="str">
+      <c r="E34" t="str">
         <f t="shared" si="13"/>
         <v>0.000254,0.000254,0.000254,0.000042,0.039,0.009</v>
       </c>
@@ -3522,7 +3616,7 @@
         <f t="shared" si="11"/>
         <v>2.5400000000000032E-4</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34">
         <f t="shared" si="12"/>
         <v>4.1999999999999977E-5</v>
       </c>
@@ -3542,7 +3636,7 @@
       <c r="D35" t="s">
         <v>148</v>
       </c>
-      <c r="E35" s="6" t="str">
+      <c r="E35" t="str">
         <f t="shared" si="13"/>
         <v>0.000259,0.000259,0.000259,0.000043,0.04,0.01</v>
       </c>
@@ -3558,7 +3652,7 @@
         <f t="shared" si="11"/>
         <v>2.5900000000000033E-4</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35">
         <f t="shared" si="12"/>
         <v>4.2999999999999975E-5</v>
       </c>
@@ -3578,7 +3672,7 @@
       <c r="D36" t="s">
         <v>149</v>
       </c>
-      <c r="E36" s="6" t="str">
+      <c r="E36" t="str">
         <f t="shared" si="13"/>
         <v>0.000264,0.000264,0.000264,0.000044,0.041,0.011</v>
       </c>
@@ -3594,7 +3688,7 @@
         <f t="shared" si="11"/>
         <v>2.6400000000000035E-4</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36">
         <f t="shared" si="12"/>
         <v>4.3999999999999972E-5</v>
       </c>
@@ -3614,7 +3708,7 @@
       <c r="D37" t="s">
         <v>150</v>
       </c>
-      <c r="E37" s="6" t="str">
+      <c r="E37" t="str">
         <f t="shared" si="13"/>
         <v>0.000269,0.000269,0.000269,0.000045,0.042,0.012</v>
       </c>
@@ -3630,7 +3724,7 @@
         <f t="shared" si="11"/>
         <v>2.6900000000000036E-4</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37">
         <f t="shared" si="12"/>
         <v>4.4999999999999969E-5</v>
       </c>
@@ -3650,7 +3744,7 @@
       <c r="D38" t="s">
         <v>151</v>
       </c>
-      <c r="E38" s="6" t="str">
+      <c r="E38" t="str">
         <f t="shared" si="13"/>
         <v>0.000274,0.000274,0.000274,0.000046,0.043,0.013</v>
       </c>
@@ -3666,7 +3760,7 @@
         <f t="shared" si="11"/>
         <v>2.7400000000000037E-4</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38">
         <f t="shared" si="12"/>
         <v>4.5999999999999966E-5</v>
       </c>
@@ -3686,7 +3780,7 @@
       <c r="D39" t="s">
         <v>152</v>
       </c>
-      <c r="E39" s="6" t="str">
+      <c r="E39" t="str">
         <f t="shared" si="13"/>
         <v>0.000279,0.000279,0.000279,0.000047,0.044,0.014</v>
       </c>
@@ -3702,7 +3796,7 @@
         <f t="shared" si="11"/>
         <v>2.7900000000000038E-4</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39">
         <f t="shared" si="12"/>
         <v>4.6999999999999963E-5</v>
       </c>
@@ -3722,7 +3816,7 @@
       <c r="D40" t="s">
         <v>153</v>
       </c>
-      <c r="E40" s="6" t="str">
+      <c r="E40" t="str">
         <f t="shared" si="13"/>
         <v>0.000284,0.000284,0.000284,0.000048,0.045,0.015</v>
       </c>
@@ -3738,7 +3832,7 @@
         <f t="shared" si="11"/>
         <v>2.840000000000004E-4</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40">
         <f t="shared" si="12"/>
         <v>4.7999999999999961E-5</v>
       </c>
@@ -3758,7 +3852,7 @@
       <c r="D41" t="s">
         <v>154</v>
       </c>
-      <c r="E41" s="6" t="str">
+      <c r="E41" t="str">
         <f t="shared" si="13"/>
         <v>0.000289,0.000289,0.000289,0.000049,0.046,0.016</v>
       </c>
@@ -3774,7 +3868,7 @@
         <f t="shared" si="11"/>
         <v>2.8900000000000041E-4</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41">
         <f t="shared" si="12"/>
         <v>4.8999999999999958E-5</v>
       </c>
@@ -3794,7 +3888,7 @@
       <c r="D42" t="s">
         <v>155</v>
       </c>
-      <c r="E42" s="6" t="str">
+      <c r="E42" t="str">
         <f>F42&amp;","&amp;G42&amp;","&amp;H42&amp;","&amp;I42&amp;","&amp;J42&amp;","&amp;K42&amp;","&amp;L42</f>
         <v>0.000294,0.000294,0.000294,0.00005,0.047,0.017,0.005</v>
       </c>
@@ -3810,7 +3904,7 @@
         <f t="shared" si="11"/>
         <v>2.9400000000000042E-4</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42">
         <f t="shared" si="12"/>
         <v>4.9999999999999955E-5</v>
       </c>
@@ -3833,8 +3927,8 @@
       <c r="D43" t="s">
         <v>156</v>
       </c>
-      <c r="E43" s="6" t="str">
-        <f t="shared" ref="E43:E59" si="14">F43&amp;","&amp;G43&amp;","&amp;H43&amp;","&amp;I43&amp;","&amp;J43&amp;","&amp;K43&amp;","&amp;L43</f>
+      <c r="E43" t="str">
+        <f t="shared" ref="E43" si="14">F43&amp;","&amp;G43&amp;","&amp;H43&amp;","&amp;I43&amp;","&amp;J43&amp;","&amp;K43&amp;","&amp;L43</f>
         <v>0.000299,0.000299,0.000299,0.000051,0.048,0.018,0.006</v>
       </c>
       <c r="F43">
@@ -3849,7 +3943,7 @@
         <f t="shared" si="11"/>
         <v>2.9900000000000044E-4</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43">
         <f t="shared" si="12"/>
         <v>5.0999999999999952E-5</v>
       </c>
@@ -3873,7 +3967,7 @@
       <c r="D44" t="s">
         <v>157</v>
       </c>
-      <c r="E44" s="6" t="str">
+      <c r="E44" t="str">
         <f>ROUNDUP(F44,6)&amp;","&amp;ROUNDUP(G44,6)&amp;","&amp;ROUNDUP(H44,6)&amp;","&amp;ROUNDUP(I44,7)&amp;","&amp;ROUNDUP(J44,7)&amp;","&amp;ROUNDUP(K44,3)&amp;","&amp;ROUNDUP(L44,3)</f>
         <v>0.000304,0.000304,0.000304,0.000052,0.049,0.019,0.007</v>
       </c>
@@ -3889,7 +3983,7 @@
         <f t="shared" si="11"/>
         <v>3.0400000000000045E-4</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44">
         <f t="shared" si="12"/>
         <v>5.1999999999999949E-5</v>
       </c>
@@ -3925,7 +4019,7 @@
       <c r="D45" t="s">
         <v>158</v>
       </c>
-      <c r="E45" s="6" t="str">
+      <c r="E45" t="str">
         <f t="shared" ref="E45:E59" si="16">ROUNDUP(F45,6)&amp;","&amp;ROUNDUP(G45,6)&amp;","&amp;ROUNDUP(H45,6)&amp;","&amp;ROUNDUP(I45,7)&amp;","&amp;ROUNDUP(J45,7)&amp;","&amp;ROUNDUP(K45,3)&amp;","&amp;ROUNDUP(L45,3)</f>
         <v>0.000309,0.000309,0.000309,0.000053,0.05,0.02,0.008</v>
       </c>
@@ -3941,7 +4035,7 @@
         <f t="shared" si="11"/>
         <v>3.0900000000000046E-4</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45">
         <f t="shared" si="12"/>
         <v>5.2999999999999947E-5</v>
       </c>
@@ -3962,7 +4056,10 @@
       <c r="C46">
         <v>85</v>
       </c>
-      <c r="E46" s="6" t="str">
+      <c r="D46" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" t="str">
         <f t="shared" si="16"/>
         <v>0.000314,0.000314,0.000314,0.000054,0.051,0.021,0.009</v>
       </c>
@@ -3978,7 +4075,7 @@
         <f t="shared" si="11"/>
         <v>3.1400000000000048E-4</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46">
         <f t="shared" si="12"/>
         <v>5.3999999999999944E-5</v>
       </c>
@@ -3999,7 +4096,10 @@
       <c r="C47">
         <v>86</v>
       </c>
-      <c r="E47" s="6" t="str">
+      <c r="D47" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" t="str">
         <f t="shared" si="16"/>
         <v>0.000319,0.000319,0.000319,0.000055,0.052,0.022,0.01</v>
       </c>
@@ -4015,7 +4115,7 @@
         <f t="shared" si="11"/>
         <v>3.1900000000000049E-4</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47">
         <f t="shared" si="12"/>
         <v>5.4999999999999941E-5</v>
       </c>
@@ -4036,7 +4136,10 @@
       <c r="C48">
         <v>87</v>
       </c>
-      <c r="E48" s="6" t="str">
+      <c r="D48" t="s">
+        <v>162</v>
+      </c>
+      <c r="E48" t="str">
         <f t="shared" si="16"/>
         <v>0.000325,0.000325,0.000325,0.000056,0.053,0.023,0.011</v>
       </c>
@@ -4052,7 +4155,7 @@
         <f t="shared" si="11"/>
         <v>3.240000000000005E-4</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I48">
         <f t="shared" si="12"/>
         <v>5.5999999999999938E-5</v>
       </c>
@@ -4073,7 +4176,10 @@
       <c r="C49">
         <v>88</v>
       </c>
-      <c r="E49" s="6" t="str">
+      <c r="D49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" t="str">
         <f t="shared" si="16"/>
         <v>0.00033,0.00033,0.00033,0.000057,0.054,0.024,0.012</v>
       </c>
@@ -4089,7 +4195,7 @@
         <f t="shared" si="11"/>
         <v>3.2900000000000052E-4</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I49">
         <f t="shared" si="12"/>
         <v>5.6999999999999935E-5</v>
       </c>
@@ -4110,7 +4216,7 @@
       <c r="C50">
         <v>89</v>
       </c>
-      <c r="E50" s="6" t="str">
+      <c r="E50" t="str">
         <f t="shared" si="16"/>
         <v>0.000335,0.000335,0.000335,0.000058,0.055,0.025,0.013</v>
       </c>
@@ -4126,7 +4232,7 @@
         <f t="shared" si="11"/>
         <v>3.3400000000000053E-4</v>
       </c>
-      <c r="I50" s="5">
+      <c r="I50">
         <f t="shared" si="12"/>
         <v>5.7999999999999933E-5</v>
       </c>
@@ -4147,7 +4253,7 @@
       <c r="C51">
         <v>90</v>
       </c>
-      <c r="E51" s="6" t="str">
+      <c r="E51" t="str">
         <f t="shared" si="16"/>
         <v>0.00034,0.00034,0.00034,0.000059,0.056,0.026,0.014</v>
       </c>
@@ -4163,7 +4269,7 @@
         <f t="shared" si="11"/>
         <v>3.3900000000000054E-4</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I51">
         <f t="shared" si="12"/>
         <v>5.899999999999993E-5</v>
       </c>
@@ -4184,7 +4290,7 @@
       <c r="C52">
         <v>91</v>
       </c>
-      <c r="E52" s="6" t="str">
+      <c r="E52" t="str">
         <f t="shared" si="16"/>
         <v>0.000345,0.000345,0.000345,0.00006,0.057,0.027,0.015</v>
       </c>
@@ -4200,7 +4306,7 @@
         <f t="shared" si="11"/>
         <v>3.4400000000000056E-4</v>
       </c>
-      <c r="I52" s="5">
+      <c r="I52">
         <f t="shared" si="12"/>
         <v>5.9999999999999927E-5</v>
       </c>
@@ -4221,7 +4327,7 @@
       <c r="C53">
         <v>92</v>
       </c>
-      <c r="E53" s="6" t="str">
+      <c r="E53" t="str">
         <f t="shared" si="16"/>
         <v>0.00035,0.00035,0.00035,0.000061,0.058,0.028,0.016</v>
       </c>
@@ -4237,7 +4343,7 @@
         <f t="shared" si="11"/>
         <v>3.4900000000000057E-4</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I53">
         <f t="shared" si="12"/>
         <v>6.0999999999999924E-5</v>
       </c>
@@ -4258,7 +4364,7 @@
       <c r="C54">
         <v>93</v>
       </c>
-      <c r="E54" s="6" t="str">
+      <c r="E54" t="str">
         <f t="shared" si="16"/>
         <v>0.000355,0.000355,0.000355,0.000062,0.059,0.029,0.017</v>
       </c>
@@ -4274,7 +4380,7 @@
         <f t="shared" si="11"/>
         <v>3.5400000000000058E-4</v>
       </c>
-      <c r="I54" s="5">
+      <c r="I54">
         <f t="shared" si="12"/>
         <v>6.1999999999999921E-5</v>
       </c>
@@ -4295,7 +4401,7 @@
       <c r="C55">
         <v>94</v>
       </c>
-      <c r="E55" s="6" t="str">
+      <c r="E55" t="str">
         <f t="shared" si="16"/>
         <v>0.00036,0.00036,0.00036,0.000063,0.06,0.03,0.018</v>
       </c>
@@ -4311,7 +4417,7 @@
         <f t="shared" si="11"/>
         <v>3.5900000000000059E-4</v>
       </c>
-      <c r="I55" s="5">
+      <c r="I55">
         <f t="shared" si="12"/>
         <v>6.2999999999999919E-5</v>
       </c>
@@ -4332,7 +4438,7 @@
       <c r="C56">
         <v>95</v>
       </c>
-      <c r="E56" s="6" t="str">
+      <c r="E56" t="str">
         <f t="shared" si="16"/>
         <v>0.000365,0.000365,0.000365,0.000064,0.061,0.031,0.019</v>
       </c>
@@ -4348,7 +4454,7 @@
         <f t="shared" si="11"/>
         <v>3.6400000000000061E-4</v>
       </c>
-      <c r="I56" s="5">
+      <c r="I56">
         <f t="shared" si="12"/>
         <v>6.3999999999999916E-5</v>
       </c>
@@ -4369,7 +4475,7 @@
       <c r="C57">
         <v>96</v>
       </c>
-      <c r="E57" s="6" t="str">
+      <c r="E57" t="str">
         <f t="shared" si="16"/>
         <v>0.00037,0.00037,0.00037,0.000065,0.062,0.032,0.02</v>
       </c>
@@ -4385,7 +4491,7 @@
         <f t="shared" si="11"/>
         <v>3.6900000000000062E-4</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I57">
         <f t="shared" si="12"/>
         <v>6.4999999999999913E-5</v>
       </c>
@@ -4406,7 +4512,7 @@
       <c r="C58">
         <v>97</v>
       </c>
-      <c r="E58" s="6" t="str">
+      <c r="E58" t="str">
         <f t="shared" si="16"/>
         <v>0.000375,0.000375,0.000375,0.000066,0.063,0.033,0.021</v>
       </c>
@@ -4422,7 +4528,7 @@
         <f t="shared" si="11"/>
         <v>3.7400000000000063E-4</v>
       </c>
-      <c r="I58" s="5">
+      <c r="I58">
         <f t="shared" si="12"/>
         <v>6.599999999999991E-5</v>
       </c>
@@ -4443,7 +4549,7 @@
       <c r="C59">
         <v>98</v>
       </c>
-      <c r="E59" s="6" t="str">
+      <c r="E59" t="str">
         <f t="shared" si="16"/>
         <v>0.00038,0.00038,0.00038,0.000067,0.064,0.034,0.022</v>
       </c>
@@ -4459,7 +4565,7 @@
         <f t="shared" si="11"/>
         <v>3.7900000000000065E-4</v>
       </c>
-      <c r="I59" s="5">
+      <c r="I59">
         <f t="shared" si="12"/>
         <v>6.6999999999999907E-5</v>
       </c>

--- a/Assets/06.Table/GradeTestTable.xlsx
+++ b/Assets/06.Table/GradeTestTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9DBBD7-0E37-4609-864D-EDE6CB8888FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6D167B-C249-4A98-A835-E8CB999A432B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GradeTestTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="168">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -636,6 +636,22 @@
   </si>
   <si>
     <t>1000설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1029,11 +1045,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2120,7 +2136,7 @@
         <v>1마</v>
       </c>
       <c r="D63" s="4" t="str">
-        <f t="shared" ref="D63:D90" si="0">D62</f>
+        <f t="shared" ref="D63:D94" si="0">D62</f>
         <v>41,38,40,44,52</v>
       </c>
       <c r="E63" s="1" t="str">
@@ -2196,7 +2212,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B90" si="2">B66*10</f>
+        <f t="shared" ref="B67:B94" si="2">B66*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="C67" t="str">
@@ -2691,6 +2707,90 @@
       <c r="E90" s="1" t="str">
         <f>VLOOKUP(A90,abilvalue!C:J,3,FALSE)</f>
         <v>0.00033,0.00033,0.00033,0.000057,0.054,0.024,0.012</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+136</v>
+      </c>
+      <c r="C91" t="str">
+        <f>VLOOKUP(A91,abilvalue!C:J,2,FALSE)</f>
+        <v>1적</v>
+      </c>
+      <c r="D91" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E91" s="1" t="str">
+        <f>VLOOKUP(A91,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000335,0.000335,0.000335,0.000058,0.055,0.025,0.013</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+137</v>
+      </c>
+      <c r="C92" t="str">
+        <f>VLOOKUP(A92,abilvalue!C:J,2,FALSE)</f>
+        <v>10적</v>
+      </c>
+      <c r="D92" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E92" s="1" t="str">
+        <f>VLOOKUP(A92,abilvalue!C:J,3,FALSE)</f>
+        <v>0.00034,0.00034,0.00034,0.000059,0.056,0.026,0.014</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+138</v>
+      </c>
+      <c r="C93" t="str">
+        <f>VLOOKUP(A93,abilvalue!C:J,2,FALSE)</f>
+        <v>100적</v>
+      </c>
+      <c r="D93" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E93" s="1" t="str">
+        <f>VLOOKUP(A93,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000345,0.000345,0.000345,0.00006,0.057,0.027,0.015</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+139</v>
+      </c>
+      <c r="C94" t="str">
+        <f>VLOOKUP(A94,abilvalue!C:J,2,FALSE)</f>
+        <v>1000적</v>
+      </c>
+      <c r="D94" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E94" s="1" t="str">
+        <f>VLOOKUP(A94,abilvalue!C:J,3,FALSE)</f>
+        <v>0.00035,0.00035,0.00035,0.000061,0.058,0.028,0.016</v>
       </c>
     </row>
   </sheetData>
@@ -2704,8 +2804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
   <dimension ref="C5:P59"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4216,6 +4316,9 @@
       <c r="C50">
         <v>89</v>
       </c>
+      <c r="D50" t="s">
+        <v>164</v>
+      </c>
       <c r="E50" t="str">
         <f t="shared" si="16"/>
         <v>0.000335,0.000335,0.000335,0.000058,0.055,0.025,0.013</v>
@@ -4253,6 +4356,9 @@
       <c r="C51">
         <v>90</v>
       </c>
+      <c r="D51" t="s">
+        <v>165</v>
+      </c>
       <c r="E51" t="str">
         <f t="shared" si="16"/>
         <v>0.00034,0.00034,0.00034,0.000059,0.056,0.026,0.014</v>
@@ -4290,6 +4396,9 @@
       <c r="C52">
         <v>91</v>
       </c>
+      <c r="D52" t="s">
+        <v>166</v>
+      </c>
       <c r="E52" t="str">
         <f t="shared" si="16"/>
         <v>0.000345,0.000345,0.000345,0.00006,0.057,0.027,0.015</v>
@@ -4326,6 +4435,9 @@
     <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53">
         <v>92</v>
+      </c>
+      <c r="D53" t="s">
+        <v>167</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="16"/>

--- a/Assets/06.Table/GradeTestTable.xlsx
+++ b/Assets/06.Table/GradeTestTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6D167B-C249-4A98-A835-E8CB999A432B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C2296D-1E33-4E35-9308-D797CEA3C7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GradeTestTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="172">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -652,6 +652,22 @@
   </si>
   <si>
     <t>1000적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1045,11 +1061,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2136,7 +2152,7 @@
         <v>1마</v>
       </c>
       <c r="D63" s="4" t="str">
-        <f t="shared" ref="D63:D94" si="0">D62</f>
+        <f t="shared" ref="D63:D98" si="0">D62</f>
         <v>41,38,40,44,52</v>
       </c>
       <c r="E63" s="1" t="str">
@@ -2212,7 +2228,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B94" si="2">B66*10</f>
+        <f t="shared" ref="B67:B98" si="2">B66*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="C67" t="str">
@@ -2791,6 +2807,90 @@
       <c r="E94" s="1" t="str">
         <f>VLOOKUP(A94,abilvalue!C:J,3,FALSE)</f>
         <v>0.00035,0.00035,0.00035,0.000061,0.058,0.028,0.016</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000003E+140</v>
+      </c>
+      <c r="C95" t="str">
+        <f>VLOOKUP(A95,abilvalue!C:J,2,FALSE)</f>
+        <v>1고</v>
+      </c>
+      <c r="D95" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E95" s="1" t="str">
+        <f>VLOOKUP(A95,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000355,0.000355,0.000355,0.000062,0.059,0.029,0.017</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+141</v>
+      </c>
+      <c r="C96" t="str">
+        <f>VLOOKUP(A96,abilvalue!C:J,2,FALSE)</f>
+        <v>10고</v>
+      </c>
+      <c r="D96" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E96" s="1" t="str">
+        <f>VLOOKUP(A96,abilvalue!C:J,3,FALSE)</f>
+        <v>0.00036,0.00036,0.00036,0.000063,0.06,0.03,0.018</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+142</v>
+      </c>
+      <c r="C97" t="str">
+        <f>VLOOKUP(A97,abilvalue!C:J,2,FALSE)</f>
+        <v>100고</v>
+      </c>
+      <c r="D97" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E97" s="1" t="str">
+        <f>VLOOKUP(A97,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000365,0.000365,0.000365,0.000064,0.061,0.031,0.019</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+143</v>
+      </c>
+      <c r="C98" t="str">
+        <f>VLOOKUP(A98,abilvalue!C:J,2,FALSE)</f>
+        <v>1000고</v>
+      </c>
+      <c r="D98" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E98" s="1" t="str">
+        <f>VLOOKUP(A98,abilvalue!C:J,3,FALSE)</f>
+        <v>0.00037,0.00037,0.00037,0.000065,0.062,0.032,0.02</v>
       </c>
     </row>
   </sheetData>
@@ -2802,10 +2902,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:P59"/>
+  <dimension ref="C5:P81"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3434,19 +3534,19 @@
         <v>0.000214,0.000214,0.000214,0.000034,0.031</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26:F59" si="9">F25+0.000005</f>
+        <f t="shared" ref="F26:F81" si="9">F25+0.000005</f>
         <v>2.1400000000000024E-4</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26:G59" si="10">G25+0.000005</f>
+        <f t="shared" ref="G26:G81" si="10">G25+0.000005</f>
         <v>2.1400000000000024E-4</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:H59" si="11">H25+0.000005</f>
+        <f t="shared" ref="H26:H81" si="11">H25+0.000005</f>
         <v>2.1400000000000024E-4</v>
       </c>
       <c r="I26">
-        <f t="shared" ref="I26:I59" si="12">I25+0.000001</f>
+        <f t="shared" ref="I26:I81" si="12">I25+0.000001</f>
         <v>3.4E-5</v>
       </c>
       <c r="J26">
@@ -4476,6 +4576,9 @@
       <c r="C54">
         <v>93</v>
       </c>
+      <c r="D54" t="s">
+        <v>168</v>
+      </c>
       <c r="E54" t="str">
         <f t="shared" si="16"/>
         <v>0.000355,0.000355,0.000355,0.000062,0.059,0.029,0.017</v>
@@ -4513,6 +4616,9 @@
       <c r="C55">
         <v>94</v>
       </c>
+      <c r="D55" t="s">
+        <v>169</v>
+      </c>
       <c r="E55" t="str">
         <f t="shared" si="16"/>
         <v>0.00036,0.00036,0.00036,0.000063,0.06,0.03,0.018</v>
@@ -4550,6 +4656,9 @@
       <c r="C56">
         <v>95</v>
       </c>
+      <c r="D56" t="s">
+        <v>170</v>
+      </c>
       <c r="E56" t="str">
         <f t="shared" si="16"/>
         <v>0.000365,0.000365,0.000365,0.000064,0.061,0.031,0.019</v>
@@ -4587,6 +4696,9 @@
       <c r="C57">
         <v>96</v>
       </c>
+      <c r="D57" t="s">
+        <v>171</v>
+      </c>
       <c r="E57" t="str">
         <f t="shared" si="16"/>
         <v>0.00037,0.00037,0.00037,0.000065,0.062,0.032,0.02</v>
@@ -4625,7 +4737,7 @@
         <v>97</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="16"/>
+        <f>ROUNDUP(F58,6)&amp;","&amp;ROUNDUP(G58,6)&amp;","&amp;ROUNDUP(H58,6)&amp;","&amp;ROUNDUP(I58,7)&amp;","&amp;ROUNDUP(J58,7)&amp;","&amp;ROUNDUP(K58,3)&amp;","&amp;ROUNDUP(L58,3)</f>
         <v>0.000375,0.000375,0.000375,0.000066,0.063,0.033,0.021</v>
       </c>
       <c r="F58">
@@ -4653,7 +4765,7 @@
         <v>3.3000000000000022E-2</v>
       </c>
       <c r="L58">
-        <f t="shared" ref="L58" si="41">L57+0.001</f>
+        <f t="shared" ref="L58:L81" si="41">L57+0.001</f>
         <v>2.1000000000000012E-2</v>
       </c>
     </row>
@@ -4690,8 +4802,822 @@
         <v>3.4000000000000023E-2</v>
       </c>
       <c r="L59">
-        <f t="shared" ref="L59" si="43">L58+0.001</f>
+        <f t="shared" ref="L59:L67" si="43">L58+0.001</f>
         <v>2.2000000000000013E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>99</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" ref="E60:E70" si="44">ROUNDUP(F60,6)&amp;","&amp;ROUNDUP(G60,6)&amp;","&amp;ROUNDUP(H60,6)&amp;","&amp;ROUNDUP(I60,7)&amp;","&amp;ROUNDUP(J60,7)&amp;","&amp;ROUNDUP(K60,3)&amp;","&amp;ROUNDUP(L60,3)</f>
+        <v>0.000385,0.000385,0.000385,0.000068,0.065,0.035,0.023</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="9"/>
+        <v>3.8400000000000066E-4</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="10"/>
+        <v>3.8400000000000066E-4</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="11"/>
+        <v>3.8400000000000066E-4</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="12"/>
+        <v>6.7999999999999905E-5</v>
+      </c>
+      <c r="J60">
+        <f t="shared" ref="J60:K60" si="45">J59+0.001</f>
+        <v>6.500000000000003E-2</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="45"/>
+        <v>3.5000000000000024E-2</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="41"/>
+        <v>2.3000000000000013E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>100</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="44"/>
+        <v>0.00039,0.00039,0.00039,0.000069,0.066,0.036,0.024</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="9"/>
+        <v>3.8900000000000067E-4</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="10"/>
+        <v>3.8900000000000067E-4</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="11"/>
+        <v>3.8900000000000067E-4</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="12"/>
+        <v>6.8999999999999902E-5</v>
+      </c>
+      <c r="J61">
+        <f t="shared" ref="J61:K61" si="46">J60+0.001</f>
+        <v>6.6000000000000031E-2</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="46"/>
+        <v>3.6000000000000025E-2</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="43"/>
+        <v>2.4000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>101</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="44"/>
+        <v>0.000395,0.000395,0.000395,0.00007,0.067,0.037,0.025</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="9"/>
+        <v>3.9400000000000069E-4</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="10"/>
+        <v>3.9400000000000069E-4</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="11"/>
+        <v>3.9400000000000069E-4</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="12"/>
+        <v>6.9999999999999899E-5</v>
+      </c>
+      <c r="J62">
+        <f t="shared" ref="J62:K62" si="47">J61+0.001</f>
+        <v>6.7000000000000032E-2</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="47"/>
+        <v>3.7000000000000026E-2</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="41"/>
+        <v>2.5000000000000015E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>102</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="44"/>
+        <v>0.0004,0.0004,0.0004,0.000071,0.068,0.038,0.026</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="9"/>
+        <v>3.990000000000007E-4</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="10"/>
+        <v>3.990000000000007E-4</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="11"/>
+        <v>3.990000000000007E-4</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="12"/>
+        <v>7.0999999999999896E-5</v>
+      </c>
+      <c r="J63">
+        <f t="shared" ref="J63:K63" si="48">J62+0.001</f>
+        <v>6.8000000000000033E-2</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="48"/>
+        <v>3.8000000000000027E-2</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="43"/>
+        <v>2.6000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>103</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="44"/>
+        <v>0.000405,0.000405,0.000405,0.000072,0.069,0.039,0.027</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="9"/>
+        <v>4.0400000000000071E-4</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="10"/>
+        <v>4.0400000000000071E-4</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="11"/>
+        <v>4.0400000000000071E-4</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="12"/>
+        <v>7.1999999999999893E-5</v>
+      </c>
+      <c r="J64">
+        <f t="shared" ref="J64:K64" si="49">J63+0.001</f>
+        <v>6.9000000000000034E-2</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="49"/>
+        <v>3.9000000000000028E-2</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="41"/>
+        <v>2.7000000000000017E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>104</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="44"/>
+        <v>0.00041,0.00041,0.00041,0.000073,0.07,0.04,0.028</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="9"/>
+        <v>4.0900000000000073E-4</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="10"/>
+        <v>4.0900000000000073E-4</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="11"/>
+        <v>4.0900000000000073E-4</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="12"/>
+        <v>7.2999999999999891E-5</v>
+      </c>
+      <c r="J65">
+        <f t="shared" ref="J65:K65" si="50">J64+0.001</f>
+        <v>7.0000000000000034E-2</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="50"/>
+        <v>4.0000000000000029E-2</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="43"/>
+        <v>2.8000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>105</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="44"/>
+        <v>0.000415,0.000415,0.000415,0.000074,0.071,0.041,0.029</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="9"/>
+        <v>4.1400000000000074E-4</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="10"/>
+        <v>4.1400000000000074E-4</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="11"/>
+        <v>4.1400000000000074E-4</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="12"/>
+        <v>7.3999999999999888E-5</v>
+      </c>
+      <c r="J66">
+        <f t="shared" ref="J66:K66" si="51">J65+0.001</f>
+        <v>7.1000000000000035E-2</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="51"/>
+        <v>4.1000000000000029E-2</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="41"/>
+        <v>2.9000000000000019E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>106</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="44"/>
+        <v>0.00042,0.00042,0.00042,0.000075,0.072,0.042,0.03</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="9"/>
+        <v>4.1900000000000075E-4</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="10"/>
+        <v>4.1900000000000075E-4</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="11"/>
+        <v>4.1900000000000075E-4</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="12"/>
+        <v>7.4999999999999885E-5</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:K67" si="52">J66+0.001</f>
+        <v>7.2000000000000036E-2</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="52"/>
+        <v>4.200000000000003E-2</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="43"/>
+        <v>3.000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>107</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="44"/>
+        <v>0.000425,0.000425,0.000425,0.000076,0.073,0.043,0.031</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="9"/>
+        <v>4.2400000000000077E-4</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="10"/>
+        <v>4.2400000000000077E-4</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="11"/>
+        <v>4.2400000000000077E-4</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="12"/>
+        <v>7.5999999999999882E-5</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ref="J68:K68" si="53">J67+0.001</f>
+        <v>7.3000000000000037E-2</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="53"/>
+        <v>4.3000000000000031E-2</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="41"/>
+        <v>3.1000000000000021E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>108</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="44"/>
+        <v>0.00043,0.00043,0.00043,0.000077,0.074,0.044,0.032</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="9"/>
+        <v>4.2900000000000078E-4</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="10"/>
+        <v>4.2900000000000078E-4</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="11"/>
+        <v>4.2900000000000078E-4</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="12"/>
+        <v>7.6999999999999879E-5</v>
+      </c>
+      <c r="J69">
+        <f t="shared" ref="J69:K69" si="54">J68+0.001</f>
+        <v>7.4000000000000038E-2</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="54"/>
+        <v>4.4000000000000032E-2</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="41"/>
+        <v>3.2000000000000021E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>109</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="44"/>
+        <v>0.000435,0.000435,0.000435,0.000078,0.075,0.045,0.033</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="9"/>
+        <v>4.3400000000000079E-4</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="10"/>
+        <v>4.3400000000000079E-4</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="11"/>
+        <v>4.3400000000000079E-4</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="12"/>
+        <v>7.7999999999999877E-5</v>
+      </c>
+      <c r="J70">
+        <f t="shared" ref="J70:K70" si="55">J69+0.001</f>
+        <v>7.5000000000000039E-2</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="55"/>
+        <v>4.5000000000000033E-2</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="41"/>
+        <v>3.3000000000000022E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>110</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" ref="E71:E81" si="56">ROUNDUP(F71,6)&amp;","&amp;ROUNDUP(G71,6)&amp;","&amp;ROUNDUP(H71,6)&amp;","&amp;ROUNDUP(I71,7)&amp;","&amp;ROUNDUP(J71,7)&amp;","&amp;ROUNDUP(K71,3)&amp;","&amp;ROUNDUP(L71,3)</f>
+        <v>0.00044,0.00044,0.00044,0.000079,0.076,0.046,0.034</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="9"/>
+        <v>4.390000000000008E-4</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="10"/>
+        <v>4.390000000000008E-4</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="11"/>
+        <v>4.390000000000008E-4</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="12"/>
+        <v>7.8999999999999874E-5</v>
+      </c>
+      <c r="J71">
+        <f t="shared" ref="J71:K71" si="57">J70+0.001</f>
+        <v>7.600000000000004E-2</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="57"/>
+        <v>4.6000000000000034E-2</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="41"/>
+        <v>3.4000000000000023E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>111</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="56"/>
+        <v>0.000445,0.000445,0.000445,0.00008,0.077,0.047,0.035</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="9"/>
+        <v>4.4400000000000082E-4</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="10"/>
+        <v>4.4400000000000082E-4</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="11"/>
+        <v>4.4400000000000082E-4</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="12"/>
+        <v>7.9999999999999871E-5</v>
+      </c>
+      <c r="J72">
+        <f t="shared" ref="J72:K72" si="58">J71+0.001</f>
+        <v>7.7000000000000041E-2</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="58"/>
+        <v>4.7000000000000035E-2</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="41"/>
+        <v>3.5000000000000024E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>112</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="56"/>
+        <v>0.00045,0.00045,0.00045,0.000081,0.078,0.048,0.036</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="9"/>
+        <v>4.4900000000000083E-4</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="10"/>
+        <v>4.4900000000000083E-4</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="11"/>
+        <v>4.4900000000000083E-4</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="12"/>
+        <v>8.0999999999999868E-5</v>
+      </c>
+      <c r="J73">
+        <f t="shared" ref="J73:K73" si="59">J72+0.001</f>
+        <v>7.8000000000000042E-2</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="59"/>
+        <v>4.8000000000000036E-2</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="41"/>
+        <v>3.6000000000000025E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>113</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="56"/>
+        <v>0.000455,0.000455,0.000455,0.000082,0.079,0.049,0.037</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="9"/>
+        <v>4.5400000000000084E-4</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="10"/>
+        <v>4.5400000000000084E-4</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="11"/>
+        <v>4.5400000000000084E-4</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="12"/>
+        <v>8.1999999999999865E-5</v>
+      </c>
+      <c r="J74">
+        <f t="shared" ref="J74:K74" si="60">J73+0.001</f>
+        <v>7.9000000000000042E-2</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="60"/>
+        <v>4.9000000000000037E-2</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="41"/>
+        <v>3.7000000000000026E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>114</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="56"/>
+        <v>0.00046,0.00046,0.00046,0.000083,0.08,0.05,0.038</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="9"/>
+        <v>4.5900000000000086E-4</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="10"/>
+        <v>4.5900000000000086E-4</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="11"/>
+        <v>4.5900000000000086E-4</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="12"/>
+        <v>8.2999999999999863E-5</v>
+      </c>
+      <c r="J75">
+        <f t="shared" ref="J75:K75" si="61">J74+0.001</f>
+        <v>8.0000000000000043E-2</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="61"/>
+        <v>5.0000000000000037E-2</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="41"/>
+        <v>3.8000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>115</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="56"/>
+        <v>0.000465,0.000465,0.000465,0.000084,0.081,0.051,0.039</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="9"/>
+        <v>4.6400000000000087E-4</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="10"/>
+        <v>4.6400000000000087E-4</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="11"/>
+        <v>4.6400000000000087E-4</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="12"/>
+        <v>8.399999999999986E-5</v>
+      </c>
+      <c r="J76">
+        <f t="shared" ref="J76:K76" si="62">J75+0.001</f>
+        <v>8.1000000000000044E-2</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="62"/>
+        <v>5.1000000000000038E-2</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="41"/>
+        <v>3.9000000000000028E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>116</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="56"/>
+        <v>0.00047,0.00047,0.00047,0.000085,0.082,0.052,0.04</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="9"/>
+        <v>4.6900000000000088E-4</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="10"/>
+        <v>4.6900000000000088E-4</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="11"/>
+        <v>4.6900000000000088E-4</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="12"/>
+        <v>8.4999999999999857E-5</v>
+      </c>
+      <c r="J77">
+        <f t="shared" ref="J77:K77" si="63">J76+0.001</f>
+        <v>8.2000000000000045E-2</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="63"/>
+        <v>5.2000000000000039E-2</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="41"/>
+        <v>4.0000000000000029E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>117</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="56"/>
+        <v>0.000475,0.000475,0.000475,0.000086,0.083,0.053,0.041</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="9"/>
+        <v>4.740000000000009E-4</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="10"/>
+        <v>4.740000000000009E-4</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="11"/>
+        <v>4.740000000000009E-4</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="12"/>
+        <v>8.5999999999999854E-5</v>
+      </c>
+      <c r="J78">
+        <f t="shared" ref="J78:K78" si="64">J77+0.001</f>
+        <v>8.3000000000000046E-2</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="64"/>
+        <v>5.300000000000004E-2</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="41"/>
+        <v>4.1000000000000029E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>118</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="56"/>
+        <v>0.00048,0.00048,0.00048,0.000087,0.084,0.054,0.042</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="9"/>
+        <v>4.7900000000000091E-4</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="10"/>
+        <v>4.7900000000000091E-4</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="11"/>
+        <v>4.7900000000000091E-4</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="12"/>
+        <v>8.6999999999999851E-5</v>
+      </c>
+      <c r="J79">
+        <f t="shared" ref="J79:K79" si="65">J78+0.001</f>
+        <v>8.4000000000000047E-2</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="65"/>
+        <v>5.4000000000000041E-2</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="41"/>
+        <v>4.200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>119</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="56"/>
+        <v>0.000485,0.000485,0.000485,0.000088,0.085,0.055,0.043</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="9"/>
+        <v>4.8400000000000092E-4</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="10"/>
+        <v>4.8400000000000092E-4</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="11"/>
+        <v>4.8400000000000092E-4</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="12"/>
+        <v>8.7999999999999849E-5</v>
+      </c>
+      <c r="J80">
+        <f t="shared" ref="J80:K80" si="66">J79+0.001</f>
+        <v>8.5000000000000048E-2</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="66"/>
+        <v>5.5000000000000042E-2</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="41"/>
+        <v>4.3000000000000031E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>120</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="56"/>
+        <v>0.00049,0.00049,0.00049,0.000089,0.086,0.056,0.044</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="9"/>
+        <v>4.8900000000000094E-4</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="10"/>
+        <v>4.8900000000000094E-4</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="11"/>
+        <v>4.8900000000000094E-4</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="12"/>
+        <v>8.8999999999999846E-5</v>
+      </c>
+      <c r="J81">
+        <f t="shared" ref="J81:K81" si="67">J80+0.001</f>
+        <v>8.6000000000000049E-2</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="67"/>
+        <v>5.6000000000000043E-2</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="41"/>
+        <v>4.4000000000000032E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GradeTestTable.xlsx
+++ b/Assets/06.Table/GradeTestTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C2296D-1E33-4E35-9308-D797CEA3C7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5983DEF-17CE-4541-845A-6ADD71FFAB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GradeTestTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="176">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -668,6 +668,22 @@
   </si>
   <si>
     <t>1000고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1061,11 +1077,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E95" sqref="E95"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2152,7 +2168,7 @@
         <v>1마</v>
       </c>
       <c r="D63" s="4" t="str">
-        <f t="shared" ref="D63:D98" si="0">D62</f>
+        <f t="shared" ref="D63:D102" si="0">D62</f>
         <v>41,38,40,44,52</v>
       </c>
       <c r="E63" s="1" t="str">
@@ -2228,7 +2244,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B98" si="2">B66*10</f>
+        <f t="shared" ref="B67:B102" si="2">B66*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="C67" t="str">
@@ -2891,6 +2907,90 @@
       <c r="E98" s="1" t="str">
         <f>VLOOKUP(A98,abilvalue!C:J,3,FALSE)</f>
         <v>0.00037,0.00037,0.00037,0.000065,0.062,0.032,0.02</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+144</v>
+      </c>
+      <c r="C99" t="str">
+        <f>VLOOKUP(A99,abilvalue!C:J,2,FALSE)</f>
+        <v>1화</v>
+      </c>
+      <c r="D99" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E99" s="1" t="str">
+        <f>VLOOKUP(A99,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000375,0.000375,0.000375,0.000066,0.063,0.033,0.021</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000003E+145</v>
+      </c>
+      <c r="C100" t="str">
+        <f>VLOOKUP(A100,abilvalue!C:J,2,FALSE)</f>
+        <v>10화</v>
+      </c>
+      <c r="D100" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E100" s="1" t="str">
+        <f>VLOOKUP(A100,abilvalue!C:J,3,FALSE)</f>
+        <v>0.00038,0.00038,0.00038,0.000067,0.064,0.034,0.022</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+146</v>
+      </c>
+      <c r="C101" t="str">
+        <f>VLOOKUP(A101,abilvalue!C:J,2,FALSE)</f>
+        <v>100화</v>
+      </c>
+      <c r="D101" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E101" s="1" t="str">
+        <f>VLOOKUP(A101,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000385,0.000385,0.000385,0.000068,0.065,0.035,0.023</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+147</v>
+      </c>
+      <c r="C102" t="str">
+        <f>VLOOKUP(A102,abilvalue!C:J,2,FALSE)</f>
+        <v>1000화</v>
+      </c>
+      <c r="D102" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E102" s="1" t="str">
+        <f>VLOOKUP(A102,abilvalue!C:J,3,FALSE)</f>
+        <v>0.00039,0.00039,0.00039,0.000069,0.066,0.036,0.024</v>
       </c>
     </row>
   </sheetData>
@@ -2904,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
   <dimension ref="C5:P81"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4736,6 +4836,9 @@
       <c r="C58">
         <v>97</v>
       </c>
+      <c r="D58" t="s">
+        <v>172</v>
+      </c>
       <c r="E58" t="str">
         <f>ROUNDUP(F58,6)&amp;","&amp;ROUNDUP(G58,6)&amp;","&amp;ROUNDUP(H58,6)&amp;","&amp;ROUNDUP(I58,7)&amp;","&amp;ROUNDUP(J58,7)&amp;","&amp;ROUNDUP(K58,3)&amp;","&amp;ROUNDUP(L58,3)</f>
         <v>0.000375,0.000375,0.000375,0.000066,0.063,0.033,0.021</v>
@@ -4773,6 +4876,9 @@
       <c r="C59">
         <v>98</v>
       </c>
+      <c r="D59" t="s">
+        <v>173</v>
+      </c>
       <c r="E59" t="str">
         <f t="shared" si="16"/>
         <v>0.00038,0.00038,0.00038,0.000067,0.064,0.034,0.022</v>
@@ -4810,6 +4916,9 @@
       <c r="C60">
         <v>99</v>
       </c>
+      <c r="D60" t="s">
+        <v>174</v>
+      </c>
       <c r="E60" t="str">
         <f t="shared" ref="E60:E70" si="44">ROUNDUP(F60,6)&amp;","&amp;ROUNDUP(G60,6)&amp;","&amp;ROUNDUP(H60,6)&amp;","&amp;ROUNDUP(I60,7)&amp;","&amp;ROUNDUP(J60,7)&amp;","&amp;ROUNDUP(K60,3)&amp;","&amp;ROUNDUP(L60,3)</f>
         <v>0.000385,0.000385,0.000385,0.000068,0.065,0.035,0.023</v>
@@ -4846,6 +4955,9 @@
     <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61">
         <v>100</v>
+      </c>
+      <c r="D61" t="s">
+        <v>175</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="44"/>

--- a/Assets/06.Table/GradeTestTable.xlsx
+++ b/Assets/06.Table/GradeTestTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5983DEF-17CE-4541-845A-6ADD71FFAB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490A89BA-B1B2-4F8B-9D5D-4BF7364F4D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GradeTestTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="180">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -684,6 +684,22 @@
   </si>
   <si>
     <t>1000화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1077,11 +1093,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2168,7 +2184,7 @@
         <v>1마</v>
       </c>
       <c r="D63" s="4" t="str">
-        <f t="shared" ref="D63:D102" si="0">D62</f>
+        <f t="shared" ref="D63:D106" si="0">D62</f>
         <v>41,38,40,44,52</v>
       </c>
       <c r="E63" s="1" t="str">
@@ -2244,7 +2260,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B102" si="2">B66*10</f>
+        <f t="shared" ref="B67:B106" si="2">B66*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="C67" t="str">
@@ -2991,6 +3007,90 @@
       <c r="E102" s="1" t="str">
         <f>VLOOKUP(A102,abilvalue!C:J,3,FALSE)</f>
         <v>0.00039,0.00039,0.00039,0.000069,0.066,0.036,0.024</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+148</v>
+      </c>
+      <c r="C103" t="str">
+        <f>VLOOKUP(A103,abilvalue!C:J,2,FALSE)</f>
+        <v>1명</v>
+      </c>
+      <c r="D103" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E103" s="1" t="str">
+        <f>VLOOKUP(A103,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000395,0.000395,0.000395,0.00007,0.067,0.037,0.025</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+149</v>
+      </c>
+      <c r="C104" t="str">
+        <f>VLOOKUP(A104,abilvalue!C:J,2,FALSE)</f>
+        <v>10명</v>
+      </c>
+      <c r="D104" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E104" s="1" t="str">
+        <f>VLOOKUP(A104,abilvalue!C:J,3,FALSE)</f>
+        <v>0.0004,0.0004,0.0004,0.000071,0.068,0.038,0.026</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+150</v>
+      </c>
+      <c r="C105" t="str">
+        <f>VLOOKUP(A105,abilvalue!C:J,2,FALSE)</f>
+        <v>100명</v>
+      </c>
+      <c r="D105" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E105" s="1" t="str">
+        <f>VLOOKUP(A105,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000405,0.000405,0.000405,0.000072,0.069,0.039,0.027</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+151</v>
+      </c>
+      <c r="C106" t="str">
+        <f>VLOOKUP(A106,abilvalue!C:J,2,FALSE)</f>
+        <v>1000명</v>
+      </c>
+      <c r="D106" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E106" s="1" t="str">
+        <f>VLOOKUP(A106,abilvalue!C:J,3,FALSE)</f>
+        <v>0.00041,0.00041,0.00041,0.000073,0.07,0.04,0.028</v>
       </c>
     </row>
   </sheetData>
@@ -3004,8 +3104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
   <dimension ref="C5:P81"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4996,6 +5096,9 @@
       <c r="C62">
         <v>101</v>
       </c>
+      <c r="D62" t="s">
+        <v>176</v>
+      </c>
       <c r="E62" t="str">
         <f t="shared" si="44"/>
         <v>0.000395,0.000395,0.000395,0.00007,0.067,0.037,0.025</v>
@@ -5033,6 +5136,9 @@
       <c r="C63">
         <v>102</v>
       </c>
+      <c r="D63" t="s">
+        <v>177</v>
+      </c>
       <c r="E63" t="str">
         <f t="shared" si="44"/>
         <v>0.0004,0.0004,0.0004,0.000071,0.068,0.038,0.026</v>
@@ -5070,6 +5176,9 @@
       <c r="C64">
         <v>103</v>
       </c>
+      <c r="D64" t="s">
+        <v>178</v>
+      </c>
       <c r="E64" t="str">
         <f t="shared" si="44"/>
         <v>0.000405,0.000405,0.000405,0.000072,0.069,0.039,0.027</v>
@@ -5106,6 +5215,9 @@
     <row r="65" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C65">
         <v>104</v>
+      </c>
+      <c r="D65" t="s">
+        <v>179</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="44"/>

--- a/Assets/06.Table/GradeTestTable.xlsx
+++ b/Assets/06.Table/GradeTestTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490A89BA-B1B2-4F8B-9D5D-4BF7364F4D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0760B90-8A84-44B3-AAD9-A64717AC654A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="184">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -700,6 +700,22 @@
   </si>
   <si>
     <t>1000명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1093,11 +1109,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
+      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2184,7 +2200,7 @@
         <v>1마</v>
       </c>
       <c r="D63" s="4" t="str">
-        <f t="shared" ref="D63:D106" si="0">D62</f>
+        <f t="shared" ref="D63:D110" si="0">D62</f>
         <v>41,38,40,44,52</v>
       </c>
       <c r="E63" s="1" t="str">
@@ -2260,7 +2276,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B106" si="2">B66*10</f>
+        <f t="shared" ref="B67:B110" si="2">B66*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="C67" t="str">
@@ -3091,6 +3107,90 @@
       <c r="E106" s="1" t="str">
         <f>VLOOKUP(A106,abilvalue!C:J,3,FALSE)</f>
         <v>0.00041,0.00041,0.00041,0.000073,0.07,0.04,0.028</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+152</v>
+      </c>
+      <c r="C107" t="str">
+        <f>VLOOKUP(A107,abilvalue!C:J,2,FALSE)</f>
+        <v>1월</v>
+      </c>
+      <c r="D107" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E107" s="1" t="str">
+        <f>VLOOKUP(A107,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000415,0.000415,0.000415,0.000074,0.071,0.041,0.029</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+153</v>
+      </c>
+      <c r="C108" t="str">
+        <f>VLOOKUP(A108,abilvalue!C:J,2,FALSE)</f>
+        <v>10월</v>
+      </c>
+      <c r="D108" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E108" s="1" t="str">
+        <f>VLOOKUP(A108,abilvalue!C:J,3,FALSE)</f>
+        <v>0.00042,0.00042,0.00042,0.000075,0.072,0.042,0.03</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+154</v>
+      </c>
+      <c r="C109" t="str">
+        <f>VLOOKUP(A109,abilvalue!C:J,2,FALSE)</f>
+        <v>100월</v>
+      </c>
+      <c r="D109" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E109" s="1" t="str">
+        <f>VLOOKUP(A109,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000425,0.000425,0.000425,0.000076,0.073,0.043,0.031</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+155</v>
+      </c>
+      <c r="C110" t="str">
+        <f>VLOOKUP(A110,abilvalue!C:J,2,FALSE)</f>
+        <v>1000월</v>
+      </c>
+      <c r="D110" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E110" s="1" t="str">
+        <f>VLOOKUP(A110,abilvalue!C:J,3,FALSE)</f>
+        <v>0.00043,0.00043,0.00043,0.000077,0.074,0.044,0.032</v>
       </c>
     </row>
   </sheetData>
@@ -3105,7 +3205,7 @@
   <dimension ref="C5:P81"/>
   <sheetViews>
     <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5256,6 +5356,9 @@
       <c r="C66">
         <v>105</v>
       </c>
+      <c r="D66" t="s">
+        <v>180</v>
+      </c>
       <c r="E66" t="str">
         <f t="shared" si="44"/>
         <v>0.000415,0.000415,0.000415,0.000074,0.071,0.041,0.029</v>
@@ -5293,6 +5396,9 @@
       <c r="C67">
         <v>106</v>
       </c>
+      <c r="D67" t="s">
+        <v>181</v>
+      </c>
       <c r="E67" t="str">
         <f t="shared" si="44"/>
         <v>0.00042,0.00042,0.00042,0.000075,0.072,0.042,0.03</v>
@@ -5330,6 +5436,9 @@
       <c r="C68">
         <v>107</v>
       </c>
+      <c r="D68" t="s">
+        <v>182</v>
+      </c>
       <c r="E68" t="str">
         <f t="shared" si="44"/>
         <v>0.000425,0.000425,0.000425,0.000076,0.073,0.043,0.031</v>
@@ -5366,6 +5475,9 @@
     <row r="69" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C69">
         <v>108</v>
+      </c>
+      <c r="D69" t="s">
+        <v>183</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="44"/>

--- a/Assets/06.Table/GradeTestTable.xlsx
+++ b/Assets/06.Table/GradeTestTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0760B90-8A84-44B3-AAD9-A64717AC654A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08785D5C-1481-4ACC-BF30-4B6BBFA912CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="188">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -716,6 +716,22 @@
   </si>
   <si>
     <t>1000월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000후</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1109,11 +1125,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2200,7 +2216,7 @@
         <v>1마</v>
       </c>
       <c r="D63" s="4" t="str">
-        <f t="shared" ref="D63:D110" si="0">D62</f>
+        <f t="shared" ref="D63:D114" si="0">D62</f>
         <v>41,38,40,44,52</v>
       </c>
       <c r="E63" s="1" t="str">
@@ -2276,7 +2292,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B110" si="2">B66*10</f>
+        <f t="shared" ref="B67:B114" si="2">B66*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="C67" t="str">
@@ -3191,6 +3207,90 @@
       <c r="E110" s="1" t="str">
         <f>VLOOKUP(A110,abilvalue!C:J,3,FALSE)</f>
         <v>0.00043,0.00043,0.00043,0.000077,0.074,0.044,0.032</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+156</v>
+      </c>
+      <c r="C111" t="str">
+        <f>VLOOKUP(A111,abilvalue!C:J,2,FALSE)</f>
+        <v>1후</v>
+      </c>
+      <c r="D111" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E111" s="1" t="str">
+        <f>VLOOKUP(A111,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000435,0.000435,0.000435,0.000078,0.075,0.045,0.033</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+157</v>
+      </c>
+      <c r="C112" t="str">
+        <f>VLOOKUP(A112,abilvalue!C:J,2,FALSE)</f>
+        <v>10후</v>
+      </c>
+      <c r="D112" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E112" s="1" t="str">
+        <f>VLOOKUP(A112,abilvalue!C:J,3,FALSE)</f>
+        <v>0.00044,0.00044,0.00044,0.000079,0.076,0.046,0.034</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+158</v>
+      </c>
+      <c r="C113" t="str">
+        <f>VLOOKUP(A113,abilvalue!C:J,2,FALSE)</f>
+        <v>100후</v>
+      </c>
+      <c r="D113" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E113" s="1" t="str">
+        <f>VLOOKUP(A113,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000445,0.000445,0.000445,0.00008,0.077,0.047,0.035</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+159</v>
+      </c>
+      <c r="C114" t="str">
+        <f>VLOOKUP(A114,abilvalue!C:J,2,FALSE)</f>
+        <v>1000후</v>
+      </c>
+      <c r="D114" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E114" s="1" t="str">
+        <f>VLOOKUP(A114,abilvalue!C:J,3,FALSE)</f>
+        <v>0.00045,0.00045,0.00045,0.000081,0.078,0.048,0.036</v>
       </c>
     </row>
   </sheetData>
@@ -3204,8 +3304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
   <dimension ref="C5:P81"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5516,6 +5616,9 @@
       <c r="C70">
         <v>109</v>
       </c>
+      <c r="D70" t="s">
+        <v>184</v>
+      </c>
       <c r="E70" t="str">
         <f t="shared" si="44"/>
         <v>0.000435,0.000435,0.000435,0.000078,0.075,0.045,0.033</v>
@@ -5553,6 +5656,9 @@
       <c r="C71">
         <v>110</v>
       </c>
+      <c r="D71" t="s">
+        <v>185</v>
+      </c>
       <c r="E71" t="str">
         <f t="shared" ref="E71:E81" si="56">ROUNDUP(F71,6)&amp;","&amp;ROUNDUP(G71,6)&amp;","&amp;ROUNDUP(H71,6)&amp;","&amp;ROUNDUP(I71,7)&amp;","&amp;ROUNDUP(J71,7)&amp;","&amp;ROUNDUP(K71,3)&amp;","&amp;ROUNDUP(L71,3)</f>
         <v>0.00044,0.00044,0.00044,0.000079,0.076,0.046,0.034</v>
@@ -5590,6 +5696,9 @@
       <c r="C72">
         <v>111</v>
       </c>
+      <c r="D72" t="s">
+        <v>186</v>
+      </c>
       <c r="E72" t="str">
         <f t="shared" si="56"/>
         <v>0.000445,0.000445,0.000445,0.00008,0.077,0.047,0.035</v>
@@ -5626,6 +5735,9 @@
     <row r="73" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C73">
         <v>112</v>
+      </c>
+      <c r="D73" t="s">
+        <v>187</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="56"/>

--- a/Assets/06.Table/GradeTestTable.xlsx
+++ b/Assets/06.Table/GradeTestTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08785D5C-1481-4ACC-BF30-4B6BBFA912CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0824A3-07AE-4F57-A348-92A6124D157F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="192">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -732,6 +732,22 @@
   </si>
   <si>
     <t>1000후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000단</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1125,11 +1141,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2216,7 +2232,7 @@
         <v>1마</v>
       </c>
       <c r="D63" s="4" t="str">
-        <f t="shared" ref="D63:D114" si="0">D62</f>
+        <f t="shared" ref="D63:D118" si="0">D62</f>
         <v>41,38,40,44,52</v>
       </c>
       <c r="E63" s="1" t="str">
@@ -2292,7 +2308,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B114" si="2">B66*10</f>
+        <f t="shared" ref="B67:B118" si="2">B66*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="C67" t="str">
@@ -3291,6 +3307,90 @@
       <c r="E114" s="1" t="str">
         <f>VLOOKUP(A114,abilvalue!C:J,3,FALSE)</f>
         <v>0.00045,0.00045,0.00045,0.000081,0.078,0.048,0.036</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+160</v>
+      </c>
+      <c r="C115" t="str">
+        <f>VLOOKUP(A115,abilvalue!C:J,2,FALSE)</f>
+        <v>1단</v>
+      </c>
+      <c r="D115" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E115" s="1" t="str">
+        <f>VLOOKUP(A115,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000455,0.000455,0.000455,0.000082,0.079,0.049,0.037</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+161</v>
+      </c>
+      <c r="C116" t="str">
+        <f>VLOOKUP(A116,abilvalue!C:J,2,FALSE)</f>
+        <v>10단</v>
+      </c>
+      <c r="D116" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E116" s="1" t="str">
+        <f>VLOOKUP(A116,abilvalue!C:J,3,FALSE)</f>
+        <v>0.00046,0.00046,0.00046,0.000083,0.08,0.05,0.038</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+162</v>
+      </c>
+      <c r="C117" t="str">
+        <f>VLOOKUP(A117,abilvalue!C:J,2,FALSE)</f>
+        <v>100단</v>
+      </c>
+      <c r="D117" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E117" s="1" t="str">
+        <f>VLOOKUP(A117,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000465,0.000465,0.000465,0.000084,0.081,0.051,0.039</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+163</v>
+      </c>
+      <c r="C118" t="str">
+        <f>VLOOKUP(A118,abilvalue!C:J,2,FALSE)</f>
+        <v>1000단</v>
+      </c>
+      <c r="D118" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E118" s="1" t="str">
+        <f>VLOOKUP(A118,abilvalue!C:J,3,FALSE)</f>
+        <v>0.00047,0.00047,0.00047,0.000085,0.082,0.052,0.04</v>
       </c>
     </row>
   </sheetData>
@@ -3304,8 +3404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
   <dimension ref="C5:P81"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5776,6 +5876,9 @@
       <c r="C74">
         <v>113</v>
       </c>
+      <c r="D74" t="s">
+        <v>188</v>
+      </c>
       <c r="E74" t="str">
         <f t="shared" si="56"/>
         <v>0.000455,0.000455,0.000455,0.000082,0.079,0.049,0.037</v>
@@ -5813,6 +5916,9 @@
       <c r="C75">
         <v>114</v>
       </c>
+      <c r="D75" t="s">
+        <v>189</v>
+      </c>
       <c r="E75" t="str">
         <f t="shared" si="56"/>
         <v>0.00046,0.00046,0.00046,0.000083,0.08,0.05,0.038</v>
@@ -5850,6 +5956,9 @@
       <c r="C76">
         <v>115</v>
       </c>
+      <c r="D76" t="s">
+        <v>190</v>
+      </c>
       <c r="E76" t="str">
         <f t="shared" si="56"/>
         <v>0.000465,0.000465,0.000465,0.000084,0.081,0.051,0.039</v>
@@ -5886,6 +5995,9 @@
     <row r="77" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C77">
         <v>116</v>
+      </c>
+      <c r="D77" t="s">
+        <v>191</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="56"/>

--- a/Assets/06.Table/GradeTestTable.xlsx
+++ b/Assets/06.Table/GradeTestTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0824A3-07AE-4F57-A348-92A6124D157F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36390564-7FBD-47A4-92DE-E94332E67EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GradeTestTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="196">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -748,6 +748,22 @@
   </si>
   <si>
     <t>1000단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000절</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1141,11 +1157,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A116" sqref="A116"/>
+      <selection pane="bottomLeft" activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2232,7 +2248,7 @@
         <v>1마</v>
       </c>
       <c r="D63" s="4" t="str">
-        <f t="shared" ref="D63:D118" si="0">D62</f>
+        <f t="shared" ref="D63:D122" si="0">D62</f>
         <v>41,38,40,44,52</v>
       </c>
       <c r="E63" s="1" t="str">
@@ -2308,7 +2324,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B118" si="2">B66*10</f>
+        <f t="shared" ref="B67:B122" si="2">B66*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="C67" t="str">
@@ -3391,6 +3407,90 @@
       <c r="E118" s="1" t="str">
         <f>VLOOKUP(A118,abilvalue!C:J,3,FALSE)</f>
         <v>0.00047,0.00047,0.00047,0.000085,0.082,0.052,0.04</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+164</v>
+      </c>
+      <c r="C119" t="str">
+        <f>VLOOKUP(A119,abilvalue!C:J,2,FALSE)</f>
+        <v>1절</v>
+      </c>
+      <c r="D119" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E119" s="1" t="str">
+        <f>VLOOKUP(A119,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000475,0.000475,0.000475,0.000086,0.083,0.053,0.041</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+165</v>
+      </c>
+      <c r="C120" t="str">
+        <f>VLOOKUP(A120,abilvalue!C:J,2,FALSE)</f>
+        <v>10절</v>
+      </c>
+      <c r="D120" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E120" s="1" t="str">
+        <f>VLOOKUP(A120,abilvalue!C:J,3,FALSE)</f>
+        <v>0.00048,0.00048,0.00048,0.000087,0.084,0.054,0.042</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+166</v>
+      </c>
+      <c r="C121" t="str">
+        <f>VLOOKUP(A121,abilvalue!C:J,2,FALSE)</f>
+        <v>100절</v>
+      </c>
+      <c r="D121" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E121" s="1" t="str">
+        <f>VLOOKUP(A121,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000485,0.000485,0.000485,0.000088,0.085,0.055,0.043</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="2"/>
+        <v>1E+167</v>
+      </c>
+      <c r="C122" t="str">
+        <f>VLOOKUP(A122,abilvalue!C:J,2,FALSE)</f>
+        <v>1000절</v>
+      </c>
+      <c r="D122" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E122" s="1" t="str">
+        <f>VLOOKUP(A122,abilvalue!C:J,3,FALSE)</f>
+        <v>0.00049,0.00049,0.00049,0.000089,0.086,0.056,0.044</v>
       </c>
     </row>
   </sheetData>
@@ -3404,8 +3504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
   <dimension ref="C5:P81"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6036,6 +6136,9 @@
       <c r="C78">
         <v>117</v>
       </c>
+      <c r="D78" t="s">
+        <v>192</v>
+      </c>
       <c r="E78" t="str">
         <f t="shared" si="56"/>
         <v>0.000475,0.000475,0.000475,0.000086,0.083,0.053,0.041</v>
@@ -6073,6 +6176,9 @@
       <c r="C79">
         <v>118</v>
       </c>
+      <c r="D79" t="s">
+        <v>193</v>
+      </c>
       <c r="E79" t="str">
         <f t="shared" si="56"/>
         <v>0.00048,0.00048,0.00048,0.000087,0.084,0.054,0.042</v>
@@ -6110,6 +6216,9 @@
       <c r="C80">
         <v>119</v>
       </c>
+      <c r="D80" t="s">
+        <v>194</v>
+      </c>
       <c r="E80" t="str">
         <f t="shared" si="56"/>
         <v>0.000485,0.000485,0.000485,0.000088,0.085,0.055,0.043</v>
@@ -6146,6 +6255,9 @@
     <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81">
         <v>120</v>
+      </c>
+      <c r="D81" t="s">
+        <v>195</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="56"/>

--- a/Assets/06.Table/GradeTestTable.xlsx
+++ b/Assets/06.Table/GradeTestTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36390564-7FBD-47A4-92DE-E94332E67EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD0051B-B16B-403F-B727-665783332FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GradeTestTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="200">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -764,6 +764,22 @@
   </si>
   <si>
     <t>1000절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1157,11 +1173,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E112" sqref="E112"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2248,7 +2264,7 @@
         <v>1마</v>
       </c>
       <c r="D63" s="4" t="str">
-        <f t="shared" ref="D63:D122" si="0">D62</f>
+        <f t="shared" ref="D63:D126" si="0">D62</f>
         <v>41,38,40,44,52</v>
       </c>
       <c r="E63" s="1" t="str">
@@ -2324,7 +2340,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B122" si="2">B66*10</f>
+        <f t="shared" ref="B67:B126" si="2">B66*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="C67" t="str">
@@ -3491,6 +3507,90 @@
       <c r="E122" s="1" t="str">
         <f>VLOOKUP(A122,abilvalue!C:J,3,FALSE)</f>
         <v>0.00049,0.00049,0.00049,0.000089,0.086,0.056,0.044</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="3">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="C123" t="str">
+        <f>VLOOKUP(A123,abilvalue!C:J,2,FALSE)</f>
+        <v>1격</v>
+      </c>
+      <c r="D123" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E123" s="1" t="str">
+        <f>VLOOKUP(A123,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000495,0.000495,0.000495,0.00009,0.087,0.057,0.045</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="3">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999993E+168</v>
+      </c>
+      <c r="C124" t="str">
+        <f>VLOOKUP(A124,abilvalue!C:J,2,FALSE)</f>
+        <v>10격</v>
+      </c>
+      <c r="D124" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E124" s="1" t="str">
+        <f>VLOOKUP(A124,abilvalue!C:J,3,FALSE)</f>
+        <v>0.0005,0.0005,0.0005,0.000091,0.0880001,0.058,0.046</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="3">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="2"/>
+        <v>9.999999999999999E+169</v>
+      </c>
+      <c r="C125" t="str">
+        <f>VLOOKUP(A125,abilvalue!C:J,2,FALSE)</f>
+        <v>100격</v>
+      </c>
+      <c r="D125" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E125" s="1" t="str">
+        <f>VLOOKUP(A125,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000505,0.000505,0.000505,0.000092,0.0890001,0.059,0.047</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="3">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999995E+170</v>
+      </c>
+      <c r="C126" t="str">
+        <f>VLOOKUP(A126,abilvalue!C:J,2,FALSE)</f>
+        <v>1000격</v>
+      </c>
+      <c r="D126" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56,74</v>
+      </c>
+      <c r="E126" s="1" t="str">
+        <f>VLOOKUP(A126,abilvalue!C:J,3,FALSE)</f>
+        <v>0.00051,0.00051,0.00051,0.000093,0.0900001,0.06,0.048</v>
       </c>
     </row>
   </sheetData>
@@ -3502,10 +3602,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:P81"/>
+  <dimension ref="C5:P85"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4134,19 +4234,19 @@
         <v>0.000214,0.000214,0.000214,0.000034,0.031</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26:F81" si="9">F25+0.000005</f>
+        <f t="shared" ref="F26:F85" si="9">F25+0.000005</f>
         <v>2.1400000000000024E-4</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26:G81" si="10">G25+0.000005</f>
+        <f t="shared" ref="G26:G85" si="10">G25+0.000005</f>
         <v>2.1400000000000024E-4</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:H81" si="11">H25+0.000005</f>
+        <f t="shared" ref="H26:H85" si="11">H25+0.000005</f>
         <v>2.1400000000000024E-4</v>
       </c>
       <c r="I26">
-        <f t="shared" ref="I26:I81" si="12">I25+0.000001</f>
+        <f t="shared" ref="I26:I85" si="12">I25+0.000001</f>
         <v>3.4E-5</v>
       </c>
       <c r="J26">
@@ -5368,7 +5468,7 @@
         <v>3.3000000000000022E-2</v>
       </c>
       <c r="L58">
-        <f t="shared" ref="L58:L81" si="41">L57+0.001</f>
+        <f t="shared" ref="L58:L85" si="41">L57+0.001</f>
         <v>2.1000000000000012E-2</v>
       </c>
     </row>
@@ -6290,6 +6390,166 @@
       <c r="L81">
         <f t="shared" si="41"/>
         <v>4.4000000000000032E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>121</v>
+      </c>
+      <c r="D82" t="s">
+        <v>196</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" ref="E82:E85" si="68">ROUNDUP(F82,6)&amp;","&amp;ROUNDUP(G82,6)&amp;","&amp;ROUNDUP(H82,6)&amp;","&amp;ROUNDUP(I82,7)&amp;","&amp;ROUNDUP(J82,7)&amp;","&amp;ROUNDUP(K82,3)&amp;","&amp;ROUNDUP(L82,3)</f>
+        <v>0.000495,0.000495,0.000495,0.00009,0.087,0.057,0.045</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="9"/>
+        <v>4.9400000000000095E-4</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="10"/>
+        <v>4.9400000000000095E-4</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="11"/>
+        <v>4.9400000000000095E-4</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="12"/>
+        <v>8.9999999999999843E-5</v>
+      </c>
+      <c r="J82">
+        <f t="shared" ref="J82:K82" si="69">J81+0.001</f>
+        <v>8.700000000000005E-2</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="69"/>
+        <v>5.7000000000000044E-2</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="41"/>
+        <v>4.5000000000000033E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>122</v>
+      </c>
+      <c r="D83" t="s">
+        <v>197</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="68"/>
+        <v>0.0005,0.0005,0.0005,0.000091,0.0880001,0.058,0.046</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="9"/>
+        <v>4.9900000000000096E-4</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="10"/>
+        <v>4.9900000000000096E-4</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="11"/>
+        <v>4.9900000000000096E-4</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="12"/>
+        <v>9.099999999999984E-5</v>
+      </c>
+      <c r="J83">
+        <f t="shared" ref="J83:K83" si="70">J82+0.001</f>
+        <v>8.800000000000005E-2</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="70"/>
+        <v>5.8000000000000045E-2</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="41"/>
+        <v>4.6000000000000034E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>123</v>
+      </c>
+      <c r="D84" t="s">
+        <v>198</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="68"/>
+        <v>0.000505,0.000505,0.000505,0.000092,0.0890001,0.059,0.047</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="9"/>
+        <v>5.0400000000000097E-4</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="10"/>
+        <v>5.0400000000000097E-4</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="11"/>
+        <v>5.0400000000000097E-4</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="12"/>
+        <v>9.1999999999999837E-5</v>
+      </c>
+      <c r="J84">
+        <f t="shared" ref="J84:K84" si="71">J83+0.001</f>
+        <v>8.9000000000000051E-2</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="71"/>
+        <v>5.9000000000000045E-2</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="41"/>
+        <v>4.7000000000000035E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>124</v>
+      </c>
+      <c r="D85" t="s">
+        <v>199</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="68"/>
+        <v>0.00051,0.00051,0.00051,0.000093,0.0900001,0.06,0.048</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="9"/>
+        <v>5.0900000000000099E-4</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="10"/>
+        <v>5.0900000000000099E-4</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="11"/>
+        <v>5.0900000000000099E-4</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="12"/>
+        <v>9.2999999999999835E-5</v>
+      </c>
+      <c r="J85">
+        <f t="shared" ref="J85:K85" si="72">J84+0.001</f>
+        <v>9.0000000000000052E-2</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="72"/>
+        <v>6.0000000000000046E-2</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="41"/>
+        <v>4.8000000000000036E-2</v>
       </c>
     </row>
   </sheetData>
